--- a/benchmark-results-hsw1-assume-single-threaded-2016-12-12.xlsx
+++ b/benchmark-results-hsw1-assume-single-threaded-2016-12-12.xlsx
@@ -9,86 +9,84 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="28" r:id="rId1"/>
-    <sheet name="output.csv" sheetId="10" r:id="rId2"/>
-    <sheet name="DataByMain" sheetId="23" r:id="rId3"/>
-    <sheet name="ChartByMain" sheetId="26" r:id="rId4"/>
-    <sheet name="DataByARC" sheetId="24" r:id="rId5"/>
-    <sheet name="ChartByARC" sheetId="27" r:id="rId6"/>
-    <sheet name="Environment" sheetId="21" r:id="rId7"/>
+    <sheet name="output.csv" sheetId="10" r:id="rId1"/>
+    <sheet name="DataByMain" sheetId="23" r:id="rId2"/>
+    <sheet name="ChartByMain" sheetId="26" r:id="rId3"/>
+    <sheet name="DataByARC" sheetId="24" r:id="rId4"/>
+    <sheet name="ChartByARC" sheetId="27" r:id="rId5"/>
+    <sheet name="Environment" sheetId="21" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DataByMain!$A$1:$J$93</definedName>
-    <definedName name="output" localSheetId="1">output.csv!$A$1:$J$93</definedName>
-    <definedName name="output_1" localSheetId="1">output.csv!$A$1:$J$93</definedName>
-    <definedName name="output_10" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_10" localSheetId="2">DataByMain!$A$1:$J$93</definedName>
-    <definedName name="output_11" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_11" localSheetId="2">DataByMain!$A$1:$J$93</definedName>
-    <definedName name="output_12" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_12" localSheetId="2">DataByMain!$A$1:$J$93</definedName>
-    <definedName name="output_13" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_13" localSheetId="2">DataByMain!$A$1:$J$93</definedName>
-    <definedName name="output_14" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_14" localSheetId="2">DataByMain!$A$1:$J$93</definedName>
-    <definedName name="output_15" localSheetId="4">DataByARC!$A$1:$J$106</definedName>
-    <definedName name="output_15" localSheetId="2">DataByMain!$A$1:$J$106</definedName>
-    <definedName name="output_16" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_16" localSheetId="2">DataByMain!$A$1:$J$93</definedName>
-    <definedName name="output_17" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_17" localSheetId="2">DataByMain!$A$1:$J$93</definedName>
-    <definedName name="output_18" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_18" localSheetId="2">DataByMain!$A$1:$J$93</definedName>
-    <definedName name="output_19" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_19" localSheetId="2">DataByMain!$A$1:$J$93</definedName>
-    <definedName name="output_2" localSheetId="1">output.csv!$A$1:$J$93</definedName>
-    <definedName name="output_20" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_20" localSheetId="2">DataByMain!$A$1:$J$93</definedName>
-    <definedName name="output_21" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_21" localSheetId="2">DataByMain!$A$1:$J$93</definedName>
-    <definedName name="output_22" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_22" localSheetId="2">DataByMain!$A$1:$J$93</definedName>
-    <definedName name="output_23" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_24" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_25" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_26" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_27" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_28" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_29" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_3" localSheetId="1">output.csv!$A$1:$J$93</definedName>
-    <definedName name="output_30" localSheetId="4">DataByARC!$A$1:$J$106</definedName>
-    <definedName name="output_31" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_32" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_33" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_34" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_35" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_36" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_37" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_38" localSheetId="4">DataByARC!$A$1:$J$106</definedName>
-    <definedName name="output_4" localSheetId="1">output.csv!$A$1:$J$93</definedName>
-    <definedName name="output_5" localSheetId="1">output.csv!$A$1:$J$93</definedName>
-    <definedName name="output_6" localSheetId="1">output.csv!$A$1:$J$93</definedName>
-    <definedName name="output_7" localSheetId="4">DataByARC!$A$1:$J$106</definedName>
-    <definedName name="output_7" localSheetId="2">DataByMain!$A$1:$J$106</definedName>
-    <definedName name="output_7" localSheetId="1">output.csv!$A$1:$J$106</definedName>
-    <definedName name="output_8" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_8" localSheetId="2">DataByMain!$A$1:$J$93</definedName>
-    <definedName name="output_8" localSheetId="1">output.csv!$A$1:$J$106</definedName>
-    <definedName name="output_9" localSheetId="4">DataByARC!$A$1:$J$93</definedName>
-    <definedName name="output_9" localSheetId="2">DataByMain!$A$1:$J$93</definedName>
-    <definedName name="output_assume_single_threaded" localSheetId="1">output.csv!$A$1:$J$106</definedName>
-    <definedName name="output_assume_single_threaded_1" localSheetId="1">output.csv!$A$1:$K$106</definedName>
-    <definedName name="output_assume_single_threaded_callgraph" localSheetId="1">output.csv!$A$1:$K$106</definedName>
-    <definedName name="output_assume_single_threaded_callgraph_1" localSheetId="1">output.csv!$A$1:$K$106</definedName>
-    <definedName name="output_assume_single_threaded_callgraph_2" localSheetId="1">output.csv!$A$1:$K$106</definedName>
-    <definedName name="output_assume_single_threaded_callgraph_2" localSheetId="0">Sheet1!$A$1:$K$106</definedName>
-    <definedName name="output_default" localSheetId="1">output.csv!$A$1:$J$106</definedName>
-    <definedName name="output_default_new" localSheetId="1">output.csv!$A$1:$K$106</definedName>
-    <definedName name="output_force_single_threaded_runtime_benchmark_new" localSheetId="1">output.csv!$A$1:$K$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DataByMain!$A$1:$J$93</definedName>
+    <definedName name="output" localSheetId="0">output.csv!$A$1:$J$93</definedName>
+    <definedName name="output_1" localSheetId="0">output.csv!$A$1:$J$93</definedName>
+    <definedName name="output_10" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_10" localSheetId="1">DataByMain!$A$1:$J$93</definedName>
+    <definedName name="output_11" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_11" localSheetId="1">DataByMain!$A$1:$J$93</definedName>
+    <definedName name="output_12" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_12" localSheetId="1">DataByMain!$A$1:$J$93</definedName>
+    <definedName name="output_13" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_13" localSheetId="1">DataByMain!$A$1:$J$93</definedName>
+    <definedName name="output_14" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_14" localSheetId="1">DataByMain!$A$1:$J$93</definedName>
+    <definedName name="output_15" localSheetId="3">DataByARC!$A$1:$J$106</definedName>
+    <definedName name="output_15" localSheetId="1">DataByMain!$A$1:$J$106</definedName>
+    <definedName name="output_16" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_16" localSheetId="1">DataByMain!$A$1:$J$93</definedName>
+    <definedName name="output_17" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_17" localSheetId="1">DataByMain!$A$1:$J$93</definedName>
+    <definedName name="output_18" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_18" localSheetId="1">DataByMain!$A$1:$J$93</definedName>
+    <definedName name="output_19" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_19" localSheetId="1">DataByMain!$A$1:$J$93</definedName>
+    <definedName name="output_2" localSheetId="0">output.csv!$A$1:$J$93</definedName>
+    <definedName name="output_20" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_20" localSheetId="1">DataByMain!$A$1:$J$93</definedName>
+    <definedName name="output_21" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_21" localSheetId="1">DataByMain!$A$1:$J$93</definedName>
+    <definedName name="output_22" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_22" localSheetId="1">DataByMain!$A$1:$J$93</definedName>
+    <definedName name="output_23" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_24" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_25" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_26" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_27" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_28" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_29" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_3" localSheetId="0">output.csv!$A$1:$J$93</definedName>
+    <definedName name="output_30" localSheetId="3">DataByARC!$A$1:$J$106</definedName>
+    <definedName name="output_31" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_32" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_33" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_34" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_35" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_36" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_37" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_38" localSheetId="3">DataByARC!$A$1:$J$106</definedName>
+    <definedName name="output_4" localSheetId="0">output.csv!$A$1:$J$93</definedName>
+    <definedName name="output_5" localSheetId="0">output.csv!$A$1:$J$93</definedName>
+    <definedName name="output_6" localSheetId="0">output.csv!$A$1:$J$93</definedName>
+    <definedName name="output_7" localSheetId="3">DataByARC!$A$1:$J$106</definedName>
+    <definedName name="output_7" localSheetId="1">DataByMain!$A$1:$J$106</definedName>
+    <definedName name="output_7" localSheetId="0">output.csv!$A$1:$J$106</definedName>
+    <definedName name="output_8" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_8" localSheetId="1">DataByMain!$A$1:$J$93</definedName>
+    <definedName name="output_8" localSheetId="0">output.csv!$A$1:$J$106</definedName>
+    <definedName name="output_9" localSheetId="3">DataByARC!$A$1:$J$93</definedName>
+    <definedName name="output_9" localSheetId="1">DataByMain!$A$1:$J$93</definedName>
+    <definedName name="output_assume_single_threaded" localSheetId="0">output.csv!$A$1:$J$106</definedName>
+    <definedName name="output_assume_single_threaded_1" localSheetId="0">output.csv!$A$1:$K$106</definedName>
+    <definedName name="output_assume_single_threaded_callgraph" localSheetId="0">output.csv!$A$1:$K$106</definedName>
+    <definedName name="output_assume_single_threaded_callgraph_1" localSheetId="0">output.csv!$A$1:$K$106</definedName>
+    <definedName name="output_assume_single_threaded_callgraph_2" localSheetId="0">output.csv!$A$1:$K$106</definedName>
+    <definedName name="output_default" localSheetId="0">output.csv!$A$1:$J$106</definedName>
+    <definedName name="output_default_new" localSheetId="0">output.csv!$A$1:$K$106</definedName>
+    <definedName name="output_force_single_threaded_runtime_benchmark_new" localSheetId="0">output.csv!$A$1:$K$106</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -120,35 +118,28 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="output-assume-single-threaded-callgraph" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite-20161212/output-assume-single-threaded-callgraph.csv" comma="1">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="3" name="output-assume-single-threaded-callgraph1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="2" name="output-assume-single-threaded-callgraph1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite-20161212/output-assume-single-threaded-callgraph.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="output-assume-single-threaded-callgraph2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" name="output-assume-single-threaded-callgraph2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite-20161212/output-assume-single-threaded-callgraph.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="output-assume-single-threaded-callgraph3" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite-20161212/output-assume-single-threaded-callgraph.csv" comma="1">
+  <connection id="4" name="output-assume-single-threaded-callgraph3" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite-20161212/output-assume-single-threaded-callgraph.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="output-assume-single-threaded1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="5" name="output-assume-single-threaded1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite-20161212/output-assume-single-threaded.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -164,21 +155,21 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="output-assume-single-threaded2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="6" name="output-assume-single-threaded2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite-20161212/output-assume-single-threaded.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="output-default-new1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="7" name="output-default-new1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite-20161212/output-default-new.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="output-default1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="8" name="output-default1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite-20161212/output-default.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -194,224 +185,224 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="output-force-single-threaded-runtime-benchmark-new1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="9" name="output-force-single-threaded-runtime-benchmark-new1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite-20161212/output-force-single-threaded-runtime-benchmark-new.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="output11" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="10" name="output11" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" name="output111" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="11" name="output111" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" name="output1111" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="12" name="output1111" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" name="output1112" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="13" name="output1112" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" name="output1113" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="14" name="output1113" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="16" name="output1114" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="15" name="output1114" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="17" name="output12" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="16" name="output12" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="18" name="output121" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="17" name="output121" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="19" name="output1211" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="18" name="output1211" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="20" name="output1212" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="19" name="output1212" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="21" name="output1213" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="20" name="output1213" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="22" name="output1214" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="21" name="output1214" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="23" name="output13" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="22" name="output13" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="24" name="output131" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="23" name="output131" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="25" name="output1311" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="24" name="output1311" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="26" name="output1312" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="25" name="output1312" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="27" name="output1313" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="26" name="output1313" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="28" name="output1314" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="27" name="output1314" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="29" name="output14" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="28" name="output14" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="30" name="output141" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="29" name="output141" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="31" name="output1411" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="30" name="output1411" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="32" name="output1412" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="31" name="output1412" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="33" name="output1413" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="32" name="output1413" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="34" name="output1414" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="33" name="output1414" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="35" name="output15" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="34" name="output15" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="36" name="output151" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="35" name="output151" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="37" name="output1511" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="36" name="output1511" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="38" name="output1512" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="37" name="output1512" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="39" name="output1513" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="38" name="output1513" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="40" name="output1514" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="39" name="output1514" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="41" name="output16" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="40" name="output16" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -427,7 +418,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="42" name="output161" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="41" name="output161" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -443,7 +434,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="43" name="output1611" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="42" name="output1611" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -459,7 +450,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="44" name="output1612" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="43" name="output1612" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -475,7 +466,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="45" name="output1613" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="44" name="output1613" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -491,7 +482,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="46" name="output1614" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="45" name="output1614" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-20160617/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -507,56 +498,56 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="47" name="output17" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="46" name="output17" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite/swift-for-linux/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="48" name="output171" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="47" name="output171" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite/swift-for-linux/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="49" name="output1711" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="48" name="output1711" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite/swift-for-linux/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="50" name="output1712" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="49" name="output1712" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite/swift-for-linux/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="51" name="output1713" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="50" name="output1713" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite/swift-for-linux/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="52" name="output1714" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="51" name="output1714" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite/swift-for-linux/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="53" name="output18" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="52" name="output18" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/SwiftBenchmarkSuite/swift-for-linux/output.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="54" name="output2" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="53" name="output2" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-new-20160509/operf-results-inline/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -572,7 +563,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="55" name="output21" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="54" name="output21" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-new-20160509/operf-results-inline/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -588,7 +579,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="56" name="output22" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="55" name="output22" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-new-20160509/operf-results-inline/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -604,7 +595,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="57" name="output23" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="56" name="output23" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-new-20160509/operf-results-inline/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -620,7 +611,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="58" name="output24" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="57" name="output24" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/mtake/swift/results/benchmark-new-20160509/operf-results-inline/output.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -640,7 +631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="124">
   <si>
     <t>others</t>
   </si>
@@ -1155,7 +1146,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8244,11 +8234,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="93988352"/>
-        <c:axId val="93991536"/>
+        <c:axId val="-647487840"/>
+        <c:axId val="-647853408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93988352"/>
+        <c:axId val="-647487840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8290,7 +8280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93991536"/>
+        <c:crossAx val="-647853408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8298,7 +8288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93991536"/>
+        <c:axId val="-647853408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8348,7 +8338,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93988352"/>
+        <c:crossAx val="-647487840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8362,7 +8352,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15588,11 +15577,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="94137776"/>
-        <c:axId val="94140960"/>
+        <c:axId val="-531975712"/>
+        <c:axId val="-531972528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94137776"/>
+        <c:axId val="-531975712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15634,7 +15623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94140960"/>
+        <c:crossAx val="-531972528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15642,7 +15631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94140960"/>
+        <c:axId val="-531972528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15692,7 +15681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94137776"/>
+        <c:crossAx val="-531975712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16930,267 +16919,263 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded-callgraph_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-force-single-threaded-runtime-benchmark-new" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_6" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded-callgraph_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-force-single-threaded-runtime-benchmark-new" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_5" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-default-new" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_4" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded-callgraph" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded-callgraph_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded-callgraph_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded-callgraph" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-default-new" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_16" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_15" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_6" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_14" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_13" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_12" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_11" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_10" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_9" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_4" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_22" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_5" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_21" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_20" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_19" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_18" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_17" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_29" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_36" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_18" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded-callgraph_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_30" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_24" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_15" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_2" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_9" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_10" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_28" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_14" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_27" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_38" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_26" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_23" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_19" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_20" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_35" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_21" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_11" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_12" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_22" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_13" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_25" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_9" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_10" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_11" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_12" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-default" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_13" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_14" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_15" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_16" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_17" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_26" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_38" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_27" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_28" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_10" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_9" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_15" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_14" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_13" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_22" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_12" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_11" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_21" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_35" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_20" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_19" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_23" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_24" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_30" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_18" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_36" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_29" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_31" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_32" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_37" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_34" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_33" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_33" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_34" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_37" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_17" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_32" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_16" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_25" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_31" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_2" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-default" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17456,3740 +17441,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K106"/>
-  <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection sqref="A1:K106"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>187</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>190</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>74639</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>188</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>96982</v>
-      </c>
-      <c r="I3">
-        <v>36114</v>
-      </c>
-      <c r="J3">
-        <v>102907</v>
-      </c>
-      <c r="K3">
-        <v>17351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4">
-        <v>12617</v>
-      </c>
-      <c r="C4">
-        <v>3162</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>28835</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>6861</v>
-      </c>
-      <c r="I4">
-        <v>172704</v>
-      </c>
-      <c r="J4">
-        <v>95635</v>
-      </c>
-      <c r="K4">
-        <v>11289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>41191</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>190</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>21</v>
-      </c>
-      <c r="I5">
-        <v>2271</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>164180</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>192</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>64683</v>
-      </c>
-      <c r="I6">
-        <v>518</v>
-      </c>
-      <c r="J6">
-        <v>19</v>
-      </c>
-      <c r="K6">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7">
-        <v>233</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>192</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>66338</v>
-      </c>
-      <c r="I7">
-        <v>175</v>
-      </c>
-      <c r="J7">
-        <v>284</v>
-      </c>
-      <c r="K7">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8">
-        <v>188</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>186</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>171952</v>
-      </c>
-      <c r="I8">
-        <v>71</v>
-      </c>
-      <c r="J8">
-        <v>535</v>
-      </c>
-      <c r="K8">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9">
-        <v>51895</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>196</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
-      </c>
-      <c r="H9">
-        <v>34456</v>
-      </c>
-      <c r="I9">
-        <v>245</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10">
-        <v>172</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>186</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>12</v>
-      </c>
-      <c r="H10">
-        <v>169094</v>
-      </c>
-      <c r="I10">
-        <v>87</v>
-      </c>
-      <c r="J10">
-        <v>499</v>
-      </c>
-      <c r="K10">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11">
-        <v>46607</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>188</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <v>36447</v>
-      </c>
-      <c r="I11">
-        <v>206</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>297064</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>189</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>258</v>
-      </c>
-      <c r="I12">
-        <v>62</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13">
-        <v>136921</v>
-      </c>
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>195</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <v>81993</v>
-      </c>
-      <c r="I13">
-        <v>397</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14">
-        <v>17185</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>189</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>12</v>
-      </c>
-      <c r="H14">
-        <v>184</v>
-      </c>
-      <c r="I14">
-        <v>11259</v>
-      </c>
-      <c r="J14">
-        <v>251781</v>
-      </c>
-      <c r="K14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>40877</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>190</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>12</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>17266</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>187</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="H16">
-        <v>90616</v>
-      </c>
-      <c r="I16">
-        <v>29984</v>
-      </c>
-      <c r="J16">
-        <v>177016</v>
-      </c>
-      <c r="K16">
-        <v>18155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>67974</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>190</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>11</v>
-      </c>
-      <c r="H17">
-        <v>42</v>
-      </c>
-      <c r="I17">
-        <v>53</v>
-      </c>
-      <c r="J17">
-        <v>50</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>17595</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>187</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>11</v>
-      </c>
-      <c r="H18">
-        <v>65420</v>
-      </c>
-      <c r="I18">
-        <v>16434</v>
-      </c>
-      <c r="J18">
-        <v>50298</v>
-      </c>
-      <c r="K18">
-        <v>2276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>60900</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>186</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>13</v>
-      </c>
-      <c r="H19">
-        <v>48</v>
-      </c>
-      <c r="I19">
-        <v>50</v>
-      </c>
-      <c r="J19">
-        <v>56</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>20599</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>180</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>11</v>
-      </c>
-      <c r="H20">
-        <v>68605</v>
-      </c>
-      <c r="I20">
-        <v>10161</v>
-      </c>
-      <c r="J20">
-        <v>47625</v>
-      </c>
-      <c r="K20">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>200308</v>
-      </c>
-      <c r="C21">
-        <v>79</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>181</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>12</v>
-      </c>
-      <c r="H21">
-        <v>20953</v>
-      </c>
-      <c r="I21">
-        <v>12399</v>
-      </c>
-      <c r="J21">
-        <v>89</v>
-      </c>
-      <c r="K21">
-        <v>4251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>197</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>12</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>192</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>11</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>189</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>11</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>188</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26">
-        <v>627</v>
-      </c>
-      <c r="C26">
-        <v>7</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>187</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>11</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>183</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>11</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28">
-        <v>7249</v>
-      </c>
-      <c r="C28">
-        <v>947</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>6153</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>269576</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>41700</v>
-      </c>
-      <c r="J28">
-        <v>5237</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29">
-        <v>330507</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>185</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>11</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <v>164199</v>
-      </c>
-      <c r="C30">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>182</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>11</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>189</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>11</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32">
-        <v>334548</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>183</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>12</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>956</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>6451</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>134319</v>
-      </c>
-      <c r="H33">
-        <v>391</v>
-      </c>
-      <c r="I33">
-        <v>31093</v>
-      </c>
-      <c r="J33">
-        <v>30352</v>
-      </c>
-      <c r="K33">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>757</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>5510</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>104549</v>
-      </c>
-      <c r="H34">
-        <v>21520</v>
-      </c>
-      <c r="I34">
-        <v>35082</v>
-      </c>
-      <c r="J34">
-        <v>80447</v>
-      </c>
-      <c r="K34">
-        <v>2719</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>689</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>6468</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>99494</v>
-      </c>
-      <c r="H35">
-        <v>36207</v>
-      </c>
-      <c r="I35">
-        <v>35751</v>
-      </c>
-      <c r="J35">
-        <v>75324</v>
-      </c>
-      <c r="K35">
-        <v>7857</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>866</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>6281</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>118278</v>
-      </c>
-      <c r="H36">
-        <v>2392</v>
-      </c>
-      <c r="I36">
-        <v>22878</v>
-      </c>
-      <c r="J36">
-        <v>90742</v>
-      </c>
-      <c r="K36">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>1360</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>6749</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>104053</v>
-      </c>
-      <c r="H37">
-        <v>11838</v>
-      </c>
-      <c r="I37">
-        <v>22504</v>
-      </c>
-      <c r="J37">
-        <v>70532</v>
-      </c>
-      <c r="K37">
-        <v>9896</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>186</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>12</v>
-      </c>
-      <c r="H38">
-        <v>101038</v>
-      </c>
-      <c r="I38">
-        <v>29988</v>
-      </c>
-      <c r="J38">
-        <v>68472</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>769</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>6158</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>98698</v>
-      </c>
-      <c r="H39">
-        <v>22361</v>
-      </c>
-      <c r="I39">
-        <v>31514</v>
-      </c>
-      <c r="J39">
-        <v>36850</v>
-      </c>
-      <c r="K39">
-        <v>10880</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>189</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>11</v>
-      </c>
-      <c r="H40">
-        <v>3942</v>
-      </c>
-      <c r="I40">
-        <v>5588</v>
-      </c>
-      <c r="J40">
-        <v>5318</v>
-      </c>
-      <c r="K40">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>186</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>11</v>
-      </c>
-      <c r="H41">
-        <v>1457</v>
-      </c>
-      <c r="I41">
-        <v>56603</v>
-      </c>
-      <c r="J41">
-        <v>138814</v>
-      </c>
-      <c r="K41">
-        <v>30148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>192</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>12</v>
-      </c>
-      <c r="H42">
-        <v>2</v>
-      </c>
-      <c r="I42">
-        <v>9059</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>191</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>11</v>
-      </c>
-      <c r="H43">
-        <v>47312</v>
-      </c>
-      <c r="I43">
-        <v>29235</v>
-      </c>
-      <c r="J43">
-        <v>118588</v>
-      </c>
-      <c r="K43">
-        <v>42199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>613</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>4638</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>147122</v>
-      </c>
-      <c r="H44">
-        <v>33536</v>
-      </c>
-      <c r="I44">
-        <v>75903</v>
-      </c>
-      <c r="J44">
-        <v>53988</v>
-      </c>
-      <c r="K44">
-        <v>6292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>191</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>11</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>181</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>12</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>186</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>12</v>
-      </c>
-      <c r="H47">
-        <v>33577</v>
-      </c>
-      <c r="I47">
-        <v>11083</v>
-      </c>
-      <c r="J47">
-        <v>95571</v>
-      </c>
-      <c r="K47">
-        <v>2726</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>17</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>340</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>15632</v>
-      </c>
-      <c r="H48">
-        <v>58412</v>
-      </c>
-      <c r="I48">
-        <v>98153</v>
-      </c>
-      <c r="J48">
-        <v>63546</v>
-      </c>
-      <c r="K48">
-        <v>13702</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>15</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>187</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>11</v>
-      </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49">
-        <v>8317</v>
-      </c>
-      <c r="J49">
-        <v>382</v>
-      </c>
-      <c r="K49">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>7</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>184</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>12</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>22409</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>141</v>
-      </c>
-      <c r="D51">
-        <v>194876</v>
-      </c>
-      <c r="E51">
-        <v>854</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>12</v>
-      </c>
-      <c r="H51">
-        <v>32193</v>
-      </c>
-      <c r="I51">
-        <v>6589</v>
-      </c>
-      <c r="J51">
-        <v>50035</v>
-      </c>
-      <c r="K51">
-        <v>10341</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>32</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>190</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>13</v>
-      </c>
-      <c r="H52">
-        <v>12648</v>
-      </c>
-      <c r="I52">
-        <v>9216</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>29</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>192</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>11</v>
-      </c>
-      <c r="H53">
-        <v>3</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>228227</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>10</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>190</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>12</v>
-      </c>
-      <c r="H54">
-        <v>4079</v>
-      </c>
-      <c r="I54">
-        <v>74601</v>
-      </c>
-      <c r="J54">
-        <v>35</v>
-      </c>
-      <c r="K54">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>12</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>191</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>13</v>
-      </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
-      <c r="I55">
-        <v>255</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>7</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>192</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>12</v>
-      </c>
-      <c r="H56">
-        <v>680</v>
-      </c>
-      <c r="I56">
-        <v>5928</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>11</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>193</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>10</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>9</v>
-      </c>
-      <c r="D58">
-        <v>48278</v>
-      </c>
-      <c r="E58">
-        <v>189</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>12</v>
-      </c>
-      <c r="H58">
-        <v>52003</v>
-      </c>
-      <c r="I58">
-        <v>65718</v>
-      </c>
-      <c r="J58">
-        <v>14038</v>
-      </c>
-      <c r="K58">
-        <v>79092</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>186</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>13</v>
-      </c>
-      <c r="H59">
-        <v>293</v>
-      </c>
-      <c r="I59">
-        <v>145102</v>
-      </c>
-      <c r="J59">
-        <v>68</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>7</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>187</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>11</v>
-      </c>
-      <c r="H60">
-        <v>120631</v>
-      </c>
-      <c r="I60">
-        <v>20343</v>
-      </c>
-      <c r="J60">
-        <v>76939</v>
-      </c>
-      <c r="K60">
-        <v>29567</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>20</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>181</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>12</v>
-      </c>
-      <c r="H61">
-        <v>10826</v>
-      </c>
-      <c r="I61">
-        <v>1119</v>
-      </c>
-      <c r="J61">
-        <v>2</v>
-      </c>
-      <c r="K61">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>7</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>204</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>11</v>
-      </c>
-      <c r="H62">
-        <v>3</v>
-      </c>
-      <c r="I62">
-        <v>127</v>
-      </c>
-      <c r="J62">
-        <v>3388</v>
-      </c>
-      <c r="K62">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>16</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>189</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>10</v>
-      </c>
-      <c r="H63">
-        <v>11576</v>
-      </c>
-      <c r="I63">
-        <v>945</v>
-      </c>
-      <c r="J63">
-        <v>2</v>
-      </c>
-      <c r="K63">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>17</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>189</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>12</v>
-      </c>
-      <c r="H64">
-        <v>1024</v>
-      </c>
-      <c r="I64">
-        <v>2065</v>
-      </c>
-      <c r="J64">
-        <v>7205</v>
-      </c>
-      <c r="K64">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>1283</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>25326</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>267199</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
-      <c r="I65">
-        <v>30665</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>887</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>10753</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>223351</v>
-      </c>
-      <c r="H66">
-        <v>3</v>
-      </c>
-      <c r="I66">
-        <v>37790</v>
-      </c>
-      <c r="J66">
-        <v>20093</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>8</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>196</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>10</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>6</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>185</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>11</v>
-      </c>
-      <c r="H68">
-        <v>319174</v>
-      </c>
-      <c r="I68">
-        <v>3423</v>
-      </c>
-      <c r="J68">
-        <v>414</v>
-      </c>
-      <c r="K68">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>8</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>188</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>11</v>
-      </c>
-      <c r="H69">
-        <v>317848</v>
-      </c>
-      <c r="I69">
-        <v>3465</v>
-      </c>
-      <c r="J69">
-        <v>408</v>
-      </c>
-      <c r="K69">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>9</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>191</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>13</v>
-      </c>
-      <c r="H70">
-        <v>314</v>
-      </c>
-      <c r="I70">
-        <v>494</v>
-      </c>
-      <c r="J70">
-        <v>348</v>
-      </c>
-      <c r="K70">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>7</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>188</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>11</v>
-      </c>
-      <c r="H71">
-        <v>41862</v>
-      </c>
-      <c r="I71">
-        <v>19481</v>
-      </c>
-      <c r="J71">
-        <v>17795</v>
-      </c>
-      <c r="K71">
-        <v>13296</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72">
-        <v>202456</v>
-      </c>
-      <c r="C72">
-        <v>9</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>193</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>11</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>59</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>6</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73">
-        <v>190</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>11</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>7</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>187</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>10</v>
-      </c>
-      <c r="H74">
-        <v>205</v>
-      </c>
-      <c r="I74">
-        <v>66</v>
-      </c>
-      <c r="J74">
-        <v>12</v>
-      </c>
-      <c r="K74">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>7</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>189</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>11</v>
-      </c>
-      <c r="H75">
-        <v>17759</v>
-      </c>
-      <c r="I75">
-        <v>6527</v>
-      </c>
-      <c r="J75">
-        <v>17257</v>
-      </c>
-      <c r="K75">
-        <v>12533</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>6</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>195</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>10</v>
-      </c>
-      <c r="H76">
-        <v>54966</v>
-      </c>
-      <c r="I76">
-        <v>22578</v>
-      </c>
-      <c r="J76">
-        <v>69532</v>
-      </c>
-      <c r="K76">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>8</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>189</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>12</v>
-      </c>
-      <c r="H77">
-        <v>21694</v>
-      </c>
-      <c r="I77">
-        <v>52299</v>
-      </c>
-      <c r="J77">
-        <v>8700</v>
-      </c>
-      <c r="K77">
-        <v>6184</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>7</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>183</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>11</v>
-      </c>
-      <c r="H78">
-        <v>2</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>56164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>8</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>196</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>11</v>
-      </c>
-      <c r="H79">
-        <v>2692</v>
-      </c>
-      <c r="I79">
-        <v>2554</v>
-      </c>
-      <c r="J79">
-        <v>30030</v>
-      </c>
-      <c r="K79">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>66</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>6</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>188</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>12</v>
-      </c>
-      <c r="H80">
-        <v>1751</v>
-      </c>
-      <c r="I80">
-        <v>48203</v>
-      </c>
-      <c r="J80">
-        <v>107013</v>
-      </c>
-      <c r="K80">
-        <v>12932</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>7</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>185</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>11</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>3033</v>
-      </c>
-      <c r="K81">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>11</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>184</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>11</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>84731</v>
-      </c>
-      <c r="K82">
-        <v>30802</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>69</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>7</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>194</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>11</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>224451</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>7</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>185</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>10</v>
-      </c>
-      <c r="H84">
-        <v>2</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>180591</v>
-      </c>
-      <c r="K84">
-        <v>5918</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>71</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>10</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>187</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>9</v>
-      </c>
-      <c r="H85">
-        <v>2266</v>
-      </c>
-      <c r="I85">
-        <v>3167</v>
-      </c>
-      <c r="J85">
-        <v>35780</v>
-      </c>
-      <c r="K85">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>6</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>192</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>10</v>
-      </c>
-      <c r="H86">
-        <v>1640</v>
-      </c>
-      <c r="I86">
-        <v>58544</v>
-      </c>
-      <c r="J86">
-        <v>110876</v>
-      </c>
-      <c r="K86">
-        <v>11205</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>7</v>
-      </c>
-      <c r="D87">
-        <v>72948</v>
-      </c>
-      <c r="E87">
-        <v>186</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>11</v>
-      </c>
-      <c r="H87">
-        <v>120444</v>
-      </c>
-      <c r="I87">
-        <v>15423</v>
-      </c>
-      <c r="J87">
-        <v>14975</v>
-      </c>
-      <c r="K87">
-        <v>57483</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>74</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>7</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>195</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>11</v>
-      </c>
-      <c r="H88">
-        <v>14519</v>
-      </c>
-      <c r="I88">
-        <v>54</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>75</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>784</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>5093</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>194141</v>
-      </c>
-      <c r="H89">
-        <v>13013</v>
-      </c>
-      <c r="I89">
-        <v>34293</v>
-      </c>
-      <c r="J89">
-        <v>17236</v>
-      </c>
-      <c r="K89">
-        <v>15503</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>76</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>822</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>5758</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>239074</v>
-      </c>
-      <c r="H90">
-        <v>11</v>
-      </c>
-      <c r="I90">
-        <v>33932</v>
-      </c>
-      <c r="J90">
-        <v>10449</v>
-      </c>
-      <c r="K90">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>77</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>1507</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>13027</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>184774</v>
-      </c>
-      <c r="H91">
-        <v>30</v>
-      </c>
-      <c r="I91">
-        <v>52339</v>
-      </c>
-      <c r="J91">
-        <v>17397</v>
-      </c>
-      <c r="K91">
-        <v>3478</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>78</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>5</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>190</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>12</v>
-      </c>
-      <c r="H92">
-        <v>3</v>
-      </c>
-      <c r="I92">
-        <v>64744</v>
-      </c>
-      <c r="J92">
-        <v>193673</v>
-      </c>
-      <c r="K92">
-        <v>23509</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>79</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>46</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>522</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>11</v>
-      </c>
-      <c r="H93">
-        <v>154993</v>
-      </c>
-      <c r="I93">
-        <v>47452</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>80</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <v>5</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>188</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>11</v>
-      </c>
-      <c r="H94">
-        <v>35200</v>
-      </c>
-      <c r="I94">
-        <v>56903</v>
-      </c>
-      <c r="J94">
-        <v>42566</v>
-      </c>
-      <c r="K94">
-        <v>4512</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>81</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>7</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>193</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>13</v>
-      </c>
-      <c r="H95">
-        <v>4</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>82</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>14</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>179</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>10</v>
-      </c>
-      <c r="H96">
-        <v>62957</v>
-      </c>
-      <c r="I96">
-        <v>147682</v>
-      </c>
-      <c r="J96">
-        <v>103849</v>
-      </c>
-      <c r="K96">
-        <v>9339</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>83</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>21</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>435</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>339245</v>
-      </c>
-      <c r="H97">
-        <v>3</v>
-      </c>
-      <c r="I97">
-        <v>629</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>84</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>700</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>5296</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>9</v>
-      </c>
-      <c r="H98">
-        <v>45471</v>
-      </c>
-      <c r="I98">
-        <v>133707</v>
-      </c>
-      <c r="J98">
-        <v>86479</v>
-      </c>
-      <c r="K98">
-        <v>5673</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>85</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>11</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>190</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>10</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>86</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>6</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>191</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>13</v>
-      </c>
-      <c r="H100">
-        <v>4333</v>
-      </c>
-      <c r="I100">
-        <v>10571</v>
-      </c>
-      <c r="J100">
-        <v>984</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>87</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>70</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>933</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>26367</v>
-      </c>
-      <c r="H101">
-        <v>8575</v>
-      </c>
-      <c r="I101">
-        <v>51037</v>
-      </c>
-      <c r="J101">
-        <v>67105</v>
-      </c>
-      <c r="K101">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>88</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>6</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>193</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>13</v>
-      </c>
-      <c r="H102">
-        <v>43122</v>
-      </c>
-      <c r="I102">
-        <v>22020</v>
-      </c>
-      <c r="J102">
-        <v>45253</v>
-      </c>
-      <c r="K102">
-        <v>3163</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>89</v>
-      </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-      <c r="C103">
-        <v>7</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>183</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>11</v>
-      </c>
-      <c r="H103">
-        <v>2</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>90</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>7</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>196</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>10</v>
-      </c>
-      <c r="H104">
-        <v>2</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>91</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>9</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>191</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>13</v>
-      </c>
-      <c r="H105">
-        <v>7148</v>
-      </c>
-      <c r="I105">
-        <v>20076</v>
-      </c>
-      <c r="J105">
-        <v>371</v>
-      </c>
-      <c r="K105">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>9</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>188</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>11</v>
-      </c>
-      <c r="H106">
-        <v>765</v>
-      </c>
-      <c r="I106">
-        <v>638</v>
-      </c>
-      <c r="J106">
-        <v>312</v>
-      </c>
-      <c r="K106">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25433,7 +21684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N106"/>
   <sheetViews>
@@ -25542,11 +21793,11 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUM(J2:K2)</f>
+        <f t="shared" ref="L2:L33" si="0">SUM(J2:K2)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N33" si="0">SUM(B2:K2)</f>
+        <f t="shared" ref="N2:N33" si="1">SUM(B2:K2)</f>
         <v>1</v>
       </c>
     </row>
@@ -25595,11 +21846,11 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <f>SUM(J3:K3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -25648,11 +21899,11 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUM(J4:K4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -25701,11 +21952,11 @@
         <v>6.9509037853883275E-4</v>
       </c>
       <c r="L5">
-        <f>SUM(J5:K5)</f>
+        <f t="shared" si="0"/>
         <v>7.0180622760684084E-4</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -25754,11 +22005,11 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUM(J6:K6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -25807,11 +22058,11 @@
         <v>2.9269720474169471E-5</v>
       </c>
       <c r="L7">
-        <f>SUM(J7:K7)</f>
+        <f t="shared" si="0"/>
         <v>7.6101273232840618E-4</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -25860,11 +22111,11 @@
         <v>1.6324131964282798E-5</v>
       </c>
       <c r="L8">
-        <f>SUM(J8:K8)</f>
+        <f t="shared" si="0"/>
         <v>9.3047552196411955E-4</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -25913,11 +22164,11 @@
         <v>1.4512387380636963E-2</v>
       </c>
       <c r="L9">
-        <f>SUM(J9:K9)</f>
+        <f t="shared" si="0"/>
         <v>1.451838175791108E-2</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -25966,11 +22217,11 @@
         <v>2.2888008972099517E-5</v>
       </c>
       <c r="L10">
-        <f>SUM(J10:K10)</f>
+        <f t="shared" si="0"/>
         <v>2.2888008972099517E-5</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -26019,11 +22270,11 @@
         <v>1.7840954875100724E-2</v>
       </c>
       <c r="L11">
-        <f>SUM(J11:K11)</f>
+        <f t="shared" si="0"/>
         <v>1.8214477571850657E-2</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -26072,11 +22323,11 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUM(J12:K12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -26125,11 +22376,11 @@
         <v>1.035291278037343E-2</v>
       </c>
       <c r="L13">
-        <f>SUM(J13:K13)</f>
+        <f t="shared" si="0"/>
         <v>1.0434805096288123E-2</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -26178,11 +22429,11 @@
         <v>1.5781837697216121E-3</v>
       </c>
       <c r="L14">
-        <f>SUM(J14:K14)</f>
+        <f t="shared" si="0"/>
         <v>1.5827318497496283E-3</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -26231,11 +22482,11 @@
         <v>2.4131551428932582E-3</v>
       </c>
       <c r="L15">
-        <f>SUM(J15:K15)</f>
+        <f t="shared" si="0"/>
         <v>2.4361375728255748E-3</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -26284,11 +22535,11 @@
         <v>1.2324849529142885E-3</v>
       </c>
       <c r="L16">
-        <f>SUM(J16:K16)</f>
+        <f t="shared" si="0"/>
         <v>1.2683825729020834E-3</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -26337,11 +22588,11 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <f>SUM(J17:K17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -26390,11 +22641,11 @@
         <v>5.286731525690206E-2</v>
       </c>
       <c r="L18">
-        <f>SUM(J18:K18)</f>
+        <f t="shared" si="0"/>
         <v>0.36641793545988871</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -26443,11 +22694,11 @@
         <v>2.5812258837389388E-2</v>
       </c>
       <c r="L19">
-        <f>SUM(J19:K19)</f>
+        <f t="shared" si="0"/>
         <v>0.341019650409356</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -26496,11 +22747,11 @@
         <v>1.4951257324539507E-2</v>
       </c>
       <c r="L20">
-        <f>SUM(J20:K20)</f>
+        <f t="shared" si="0"/>
         <v>0.34536353364689809</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -26549,11 +22800,11 @@
         <v>6.4140253354000749E-5</v>
       </c>
       <c r="L21">
-        <f>SUM(J21:K21)</f>
+        <f t="shared" si="0"/>
         <v>0.89724731412689085</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -26602,11 +22853,11 @@
         <v>5.4479927500135035E-2</v>
       </c>
       <c r="L22">
-        <f>SUM(J22:K22)</f>
+        <f t="shared" si="0"/>
         <v>0.58567347453202179</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -26655,11 +22906,11 @@
         <v>3.4094100805465204E-2</v>
       </c>
       <c r="L23">
-        <f>SUM(J23:K23)</f>
+        <f t="shared" si="0"/>
         <v>0.32292299003663405</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -26708,11 +22959,11 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <f>SUM(J24:K24)</f>
+        <f t="shared" si="0"/>
         <v>1.5828303557665863E-2</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -26761,11 +23012,11 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <f>SUM(J25:K25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -26814,11 +23065,11 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <f>SUM(J26:K26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -26867,11 +23118,11 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <f>SUM(J27:K27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -26920,11 +23171,11 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <f>SUM(J28:K28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -26973,11 +23224,11 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <f>SUM(J29:K29)</f>
+        <f t="shared" si="0"/>
         <v>4.608294930875576E-3</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -27026,11 +23277,11 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <f>SUM(J30:K30)</f>
+        <f t="shared" si="0"/>
         <v>4.5454545454545452E-3</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -27079,11 +23330,11 @@
         <v>1.2476606363069245E-3</v>
       </c>
       <c r="L31">
-        <f>SUM(J31:K31)</f>
+        <f t="shared" si="0"/>
         <v>5.4659418352493837E-3</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -27132,11 +23383,11 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <f>SUM(J32:K32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -27185,11 +23436,11 @@
         <v>9.4619666048237475E-2</v>
       </c>
       <c r="L33">
-        <f>SUM(J33:K33)</f>
+        <f t="shared" si="0"/>
         <v>0.11688311688311688</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -27238,11 +23489,11 @@
         <v>1.7949798281205812E-3</v>
       </c>
       <c r="L34">
-        <f>SUM(J34:K34)</f>
+        <f t="shared" ref="L34:L65" si="2">SUM(J34:K34)</f>
         <v>4.8828068636334781E-3</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N66" si="1">SUM(B34:K34)</f>
+        <f t="shared" ref="N34:N66" si="3">SUM(B34:K34)</f>
         <v>1</v>
       </c>
     </row>
@@ -27291,11 +23542,11 @@
         <v>1.4444842427907905E-3</v>
       </c>
       <c r="L35">
-        <f>SUM(J35:K35)</f>
+        <f t="shared" si="2"/>
         <v>4.374555938533085E-3</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -27344,11 +23595,11 @@
         <v>2.5254181698917678E-2</v>
       </c>
       <c r="L36">
-        <f>SUM(J36:K36)</f>
+        <f t="shared" si="2"/>
         <v>6.7016508144746911E-2</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -27397,11 +23648,11 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <f>SUM(J37:K37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -27450,11 +23701,11 @@
         <v>3.6821412369575077E-2</v>
       </c>
       <c r="L38">
-        <f>SUM(J38:K38)</f>
+        <f t="shared" si="2"/>
         <v>3.6972629668834113E-2</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -27503,11 +23754,11 @@
         <v>7.4494033884896825E-3</v>
       </c>
       <c r="L39">
-        <f>SUM(J39:K39)</f>
+        <f t="shared" si="2"/>
         <v>0.35803283011404841</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -27556,11 +23807,11 @@
         <v>0.99636324930369524</v>
       </c>
       <c r="L40">
-        <f>SUM(J40:K40)</f>
+        <f t="shared" si="2"/>
         <v>0.9963809895509943</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -27609,11 +23860,11 @@
         <v>2.2418192177165647E-2</v>
       </c>
       <c r="L41">
-        <f>SUM(J41:K41)</f>
+        <f t="shared" si="2"/>
         <v>2.2851693130867747E-2</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -27662,11 +23913,11 @@
         <v>0.26612868387174815</v>
       </c>
       <c r="L42">
-        <f>SUM(J42:K42)</f>
+        <f t="shared" si="2"/>
         <v>0.99820288402553981</v>
       </c>
       <c r="N42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -27715,11 +23966,11 @@
         <v>3.2370539365502993E-2</v>
       </c>
       <c r="L43">
-        <f>SUM(J43:K43)</f>
+        <f t="shared" si="2"/>
         <v>0.33775271548075131</v>
       </c>
       <c r="N43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -27768,11 +24019,11 @@
         <v>6.8648314683874508E-6</v>
       </c>
       <c r="L44">
-        <f>SUM(J44:K44)</f>
+        <f t="shared" si="2"/>
         <v>4.7367337131873415E-4</v>
       </c>
       <c r="N44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -27821,11 +24072,11 @@
         <v>2.5696002247367401E-3</v>
       </c>
       <c r="L45">
-        <f>SUM(J45:K45)</f>
+        <f t="shared" si="2"/>
         <v>0.3774420497312661</v>
       </c>
       <c r="N45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -27874,11 +24125,11 @@
         <v>1.0850609573597781E-2</v>
       </c>
       <c r="L46">
-        <f>SUM(J46:K46)</f>
+        <f t="shared" si="2"/>
         <v>0.3318873835225572</v>
       </c>
       <c r="N46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -27927,11 +24178,11 @@
         <v>8.3324472421297383E-2</v>
       </c>
       <c r="L47">
-        <f>SUM(J47:K47)</f>
+        <f t="shared" si="2"/>
         <v>0.76977223911702786</v>
       </c>
       <c r="N47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -27980,11 +24231,11 @@
         <v>5.9530337509938859E-3</v>
       </c>
       <c r="L48">
-        <f>SUM(J48:K48)</f>
+        <f t="shared" si="2"/>
         <v>4.1763770460340528E-2</v>
       </c>
       <c r="N48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28033,11 +24284,11 @@
         <v>3.5049247225818696E-2</v>
       </c>
       <c r="L49">
-        <f>SUM(J49:K49)</f>
+        <f t="shared" si="2"/>
         <v>0.20463527226632142</v>
       </c>
       <c r="N49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28086,11 +24337,11 @@
         <v>1.9534730652327123E-2</v>
       </c>
       <c r="L50">
-        <f>SUM(J50:K50)</f>
+        <f t="shared" si="2"/>
         <v>0.18715091603977735</v>
       </c>
       <c r="N50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28139,11 +24390,11 @@
         <v>2.8821316478978863E-2</v>
       </c>
       <c r="L51">
-        <f>SUM(J51:K51)</f>
+        <f t="shared" si="2"/>
         <v>0.34931225716058029</v>
       </c>
       <c r="N51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28192,11 +24443,11 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <f>SUM(J52:K52)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28245,11 +24496,11 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <f>SUM(J53:K53)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28298,11 +24549,11 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <f>SUM(J54:K54)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -28351,11 +24602,11 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <f>SUM(J55:K55)</f>
+        <f t="shared" si="2"/>
         <v>4.6511627906976744E-3</v>
       </c>
       <c r="N55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -28404,11 +24655,11 @@
         <v>0.60110294117647056</v>
       </c>
       <c r="L56">
-        <f>SUM(J56:K56)</f>
+        <f t="shared" si="2"/>
         <v>0.60110294117647056</v>
       </c>
       <c r="N56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28457,11 +24708,11 @@
         <v>2.2142857142857141E-2</v>
       </c>
       <c r="L57">
-        <f>SUM(J57:K57)</f>
+        <f t="shared" si="2"/>
         <v>0.27071428571428574</v>
       </c>
       <c r="N57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28510,11 +24761,11 @@
         <v>3.3668341708542715E-2</v>
       </c>
       <c r="L58">
-        <f>SUM(J58:K58)</f>
+        <f t="shared" si="2"/>
         <v>0.19045226130653267</v>
       </c>
       <c r="N58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28563,11 +24814,11 @@
         <v>3.6923076923076922E-3</v>
       </c>
       <c r="L59">
-        <f>SUM(J59:K59)</f>
+        <f t="shared" si="2"/>
         <v>0.93692307692307686</v>
       </c>
       <c r="N59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28616,11 +24867,11 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <f>SUM(J60:K60)</f>
+        <f t="shared" si="2"/>
         <v>1.4662756598240469E-4</v>
       </c>
       <c r="N60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28669,11 +24920,11 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <f>SUM(J61:K61)</f>
+        <f t="shared" si="2"/>
         <v>6.1125605665300037E-2</v>
       </c>
       <c r="N61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28722,11 +24973,11 @@
         <v>9.3690997826938842E-3</v>
       </c>
       <c r="L62">
-        <f>SUM(J62:K62)</f>
+        <f t="shared" si="2"/>
         <v>2.258558654839514E-2</v>
       </c>
       <c r="N62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28775,11 +25026,11 @@
         <v>0.23088259676141701</v>
       </c>
       <c r="L63">
-        <f>SUM(J63:K63)</f>
+        <f t="shared" si="2"/>
         <v>0.54879059742460812</v>
       </c>
       <c r="N63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28828,11 +25079,11 @@
         <v>6.9415290670917187E-2</v>
       </c>
       <c r="L64">
-        <f>SUM(J64:K64)</f>
+        <f t="shared" si="2"/>
         <v>0.16707263686059692</v>
       </c>
       <c r="N64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28881,11 +25132,11 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <f>SUM(J65:K65)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28934,11 +25185,11 @@
         <v>3.0012605523511211E-2</v>
       </c>
       <c r="L66">
-        <f>SUM(J66:K66)</f>
+        <f t="shared" ref="L66:L97" si="4">SUM(J66:K66)</f>
         <v>0.31773940945032275</v>
       </c>
       <c r="N66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -28987,11 +25238,11 @@
         <v>0.99896700997535703</v>
       </c>
       <c r="L67">
-        <f>SUM(J67:K67)</f>
+        <f t="shared" si="4"/>
         <v>0.99897138705173261</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N106" si="2">SUM(B67:K67)</f>
+        <f t="shared" ref="N67:N106" si="5">SUM(B67:K67)</f>
         <v>1</v>
       </c>
     </row>
@@ -29040,11 +25291,11 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <f>SUM(J68:K68)</f>
+        <f t="shared" si="4"/>
         <v>0.34286916070364493</v>
       </c>
       <c r="N68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29093,11 +25344,11 @@
         <v>0.11937339766235339</v>
       </c>
       <c r="L69">
-        <f>SUM(J69:K69)</f>
+        <f t="shared" si="4"/>
         <v>0.43000585420998444</v>
       </c>
       <c r="N69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29146,11 +25397,11 @@
         <v>5.4851442342335133E-2</v>
       </c>
       <c r="L70">
-        <f>SUM(J70:K70)</f>
+        <f t="shared" si="4"/>
         <v>0.30923691563718464</v>
       </c>
       <c r="N70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29199,11 +25450,11 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <f>SUM(J71:K71)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29252,11 +25503,11 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <f>SUM(J72:K72)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29305,11 +25556,11 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <f>SUM(J73:K73)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29358,11 +25609,11 @@
         <v>1.7553335133675399E-3</v>
       </c>
       <c r="L74">
-        <f>SUM(J74:K74)</f>
+        <f t="shared" si="4"/>
         <v>1.7553335133675399E-3</v>
       </c>
       <c r="N74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29411,11 +25662,11 @@
         <v>0.16218637992831542</v>
       </c>
       <c r="L75">
-        <f>SUM(J75:K75)</f>
+        <f t="shared" si="4"/>
         <v>0.92114695340501795</v>
       </c>
       <c r="N75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29464,11 +25715,11 @@
         <v>4.7768206734534066E-2</v>
       </c>
       <c r="L76">
-        <f>SUM(J76:K76)</f>
+        <f t="shared" si="4"/>
         <v>4.7924823805794832E-2</v>
       </c>
       <c r="N76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29517,11 +25768,11 @@
         <v>0.99089100154764542</v>
       </c>
       <c r="L77">
-        <f>SUM(J77:K77)</f>
+        <f t="shared" si="4"/>
         <v>0.99093521998673451</v>
       </c>
       <c r="N77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29570,11 +25821,11 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <f>SUM(J78:K78)</f>
+        <f t="shared" si="4"/>
         <v>0.9990563644213778</v>
       </c>
       <c r="N78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29623,11 +25874,11 @@
         <v>2.7801705194691044E-2</v>
       </c>
       <c r="L79">
-        <f>SUM(J79:K79)</f>
+        <f t="shared" si="4"/>
         <v>0.42556034103893819</v>
       </c>
       <c r="N79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29676,11 +25927,11 @@
         <v>1.0645606600532922E-2</v>
       </c>
       <c r="L80">
-        <f>SUM(J80:K80)</f>
+        <f t="shared" si="4"/>
         <v>0.44151016083983435</v>
       </c>
       <c r="N80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29729,11 +25980,11 @@
         <v>6.1406345048308518E-2</v>
       </c>
       <c r="L81">
-        <f>SUM(J81:K81)</f>
+        <f t="shared" si="4"/>
         <v>0.66903596696497569</v>
       </c>
       <c r="N81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29782,11 +26033,11 @@
         <v>0.17764933211529799</v>
       </c>
       <c r="L82">
-        <f>SUM(J82:K82)</f>
+        <f t="shared" si="4"/>
         <v>0.67688104369350977</v>
       </c>
       <c r="N82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29835,11 +26086,11 @@
         <v>7.602363246230269E-2</v>
       </c>
       <c r="L83">
-        <f>SUM(J83:K83)</f>
+        <f t="shared" si="4"/>
         <v>0.7051233061932336</v>
       </c>
       <c r="N83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29888,11 +26139,11 @@
         <v>0.23663738371038379</v>
       </c>
       <c r="L84">
-        <f>SUM(J84:K84)</f>
+        <f t="shared" si="4"/>
         <v>0.59700951048226181</v>
       </c>
       <c r="N84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -29941,11 +26192,11 @@
         <v>0.20421917243682433</v>
       </c>
       <c r="L85">
-        <f>SUM(J85:K85)</f>
+        <f t="shared" si="4"/>
         <v>0.25742067735552104</v>
       </c>
       <c r="N85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -29994,11 +26245,11 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <f>SUM(J86:K86)</f>
+        <f t="shared" si="4"/>
         <v>6.8605592108632638E-2</v>
       </c>
       <c r="N86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30047,11 +26298,11 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <f>SUM(J87:K87)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30100,11 +26351,11 @@
         <v>4.3395056737015172E-2</v>
       </c>
       <c r="L88">
-        <f>SUM(J88:K88)</f>
+        <f t="shared" si="4"/>
         <v>0.85280720196221127</v>
       </c>
       <c r="N88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30153,11 +26404,11 @@
         <v>4.2246681774036905E-2</v>
       </c>
       <c r="L89">
-        <f>SUM(J89:K89)</f>
+        <f t="shared" si="4"/>
         <v>0.86960643758960365</v>
       </c>
       <c r="N89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30206,11 +26457,11 @@
         <v>0.30497534115578451</v>
       </c>
       <c r="L90">
-        <f>SUM(J90:K90)</f>
+        <f t="shared" si="4"/>
         <v>0.35910526376673002</v>
       </c>
       <c r="N90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30259,11 +26510,11 @@
         <v>0.14352331606217616</v>
       </c>
       <c r="L91">
-        <f>SUM(J91:K91)</f>
+        <f t="shared" si="4"/>
         <v>0.33561096718480138</v>
       </c>
       <c r="N91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -30312,11 +26563,11 @@
         <v>2.3915706934574859E-3</v>
       </c>
       <c r="L92">
-        <f>SUM(J92:K92)</f>
+        <f t="shared" si="4"/>
         <v>0.15113942661112473</v>
       </c>
       <c r="N92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30365,11 +26616,11 @@
         <v>4.3607776778946998E-2</v>
       </c>
       <c r="L93">
-        <f>SUM(J93:K93)</f>
+        <f t="shared" si="4"/>
         <v>0.35441453827578306</v>
       </c>
       <c r="N93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30418,11 +26669,11 @@
         <v>0.13267789479243225</v>
       </c>
       <c r="L94">
-        <f>SUM(J94:K94)</f>
+        <f t="shared" si="4"/>
         <v>0.74358240878064663</v>
       </c>
       <c r="N94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30471,11 +26722,11 @@
         <v>2.0455405917031749E-2</v>
       </c>
       <c r="L95">
-        <f>SUM(J95:K95)</f>
+        <f t="shared" si="4"/>
         <v>0.33227684929778067</v>
       </c>
       <c r="N95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30524,11 +26775,11 @@
         <v>1.2760867650943673E-2</v>
       </c>
       <c r="L96">
-        <f>SUM(J96:K96)</f>
+        <f t="shared" si="4"/>
         <v>7.6590889078047494E-2</v>
       </c>
       <c r="N96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -30577,11 +26828,11 @@
         <v>1.9041498732196616E-2</v>
       </c>
       <c r="L97">
-        <f>SUM(J97:K97)</f>
+        <f t="shared" si="4"/>
         <v>0.68661856231794971</v>
       </c>
       <c r="N97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30630,11 +26881,11 @@
         <v>5.2502050861361775E-2</v>
       </c>
       <c r="L98">
-        <f>SUM(J98:K98)</f>
+        <f t="shared" ref="L98:L129" si="6">SUM(J98:K98)</f>
         <v>0.23032379481735271</v>
       </c>
       <c r="N98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30683,11 +26934,11 @@
         <v>8.0435838497211048E-5</v>
       </c>
       <c r="L99">
-        <f>SUM(J99:K99)</f>
+        <f t="shared" si="6"/>
         <v>1.3612218822604946E-3</v>
       </c>
       <c r="N99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30736,11 +26987,11 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <f>SUM(J100:K100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30789,11 +27040,11 @@
         <v>5.5355402177367237E-2</v>
       </c>
       <c r="L101">
-        <f>SUM(J101:K101)</f>
+        <f t="shared" si="6"/>
         <v>0.11689869779299658</v>
       </c>
       <c r="N101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -30842,11 +27093,11 @@
         <v>4.6948356807511738E-3</v>
       </c>
       <c r="L102">
-        <f>SUM(J102:K102)</f>
+        <f t="shared" si="6"/>
         <v>4.6948356807511738E-3</v>
       </c>
       <c r="N102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -30895,11 +27146,11 @@
         <v>1.7081647167707613E-4</v>
       </c>
       <c r="L103">
-        <f>SUM(J103:K103)</f>
+        <f t="shared" si="6"/>
         <v>1.4379641161179318E-3</v>
       </c>
       <c r="N103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -30948,11 +27199,11 @@
         <v>0</v>
       </c>
       <c r="L104">
-        <f>SUM(J104:K104)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -31001,11 +27252,11 @@
         <v>0.10990685859441152</v>
       </c>
       <c r="L105">
-        <f>SUM(J105:K105)</f>
+        <f t="shared" si="6"/>
         <v>0.71998306519898392</v>
       </c>
       <c r="N105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -31054,11 +27305,11 @@
         <v>3.1695704102017531E-2</v>
       </c>
       <c r="L106">
-        <f>SUM(J106:K106)</f>
+        <f t="shared" si="6"/>
         <v>0.99890741405258332</v>
       </c>
       <c r="N106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -31071,7 +27322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -31084,7 +27335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N106"/>
   <sheetViews>
@@ -31191,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUM(J2:K2)</f>
+        <f t="shared" ref="L2:L33" si="0">SUM(J2:K2)</f>
         <v>0</v>
       </c>
       <c r="N2">
@@ -31244,11 +27495,11 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <f>SUM(J3:K3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="0">SUM(B3:K3)</f>
+        <f t="shared" ref="N3:N66" si="1">SUM(B3:K3)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -31297,11 +27548,11 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUM(J4:K4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -31350,11 +27601,11 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <f>SUM(J5:K5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -31403,11 +27654,11 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUM(J6:K6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -31456,11 +27707,11 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <f>SUM(J7:K7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -31509,11 +27760,11 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <f>SUM(J8:K8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -31562,11 +27813,11 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUM(J9:K9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -31615,11 +27866,11 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUM(J10:K10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -31668,11 +27919,11 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SUM(J11:K11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -31721,11 +27972,11 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUM(J12:K12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -31774,11 +28025,11 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <f>SUM(J13:K13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -31827,11 +28078,11 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <f>SUM(J14:K14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -31880,11 +28131,11 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <f>SUM(J15:K15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -31933,11 +28184,11 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <f>SUM(J16:K16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -31986,11 +28237,11 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <f>SUM(J17:K17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32039,11 +28290,11 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <f>SUM(J18:K18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32092,11 +28343,11 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <f>SUM(J19:K19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32145,11 +28396,11 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <f>SUM(J20:K20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32198,11 +28449,11 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <f>SUM(J21:K21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32251,11 +28502,11 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <f>SUM(J22:K22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32304,11 +28555,11 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <f>SUM(J23:K23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -32357,11 +28608,11 @@
         <v>2.2888008972099517E-5</v>
       </c>
       <c r="L24">
-        <f>SUM(J24:K24)</f>
+        <f t="shared" si="0"/>
         <v>2.2888008972099517E-5</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32410,11 +28661,11 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <f>SUM(J25:K25)</f>
+        <f t="shared" si="0"/>
         <v>1.4662756598240469E-4</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32463,11 +28714,11 @@
         <v>6.8648314683874508E-6</v>
       </c>
       <c r="L26">
-        <f>SUM(J26:K26)</f>
+        <f t="shared" si="0"/>
         <v>4.7367337131873415E-4</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32516,11 +28767,11 @@
         <v>6.9509037853883275E-4</v>
       </c>
       <c r="L27">
-        <f>SUM(J27:K27)</f>
+        <f t="shared" si="0"/>
         <v>7.0180622760684084E-4</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -32569,11 +28820,11 @@
         <v>2.9269720474169471E-5</v>
       </c>
       <c r="L28">
-        <f>SUM(J28:K28)</f>
+        <f t="shared" si="0"/>
         <v>7.6101273232840618E-4</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -32622,11 +28873,11 @@
         <v>1.6324131964282798E-5</v>
       </c>
       <c r="L29">
-        <f>SUM(J29:K29)</f>
+        <f t="shared" si="0"/>
         <v>9.3047552196411955E-4</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32675,11 +28926,11 @@
         <v>1.2324849529142885E-3</v>
       </c>
       <c r="L30">
-        <f>SUM(J30:K30)</f>
+        <f t="shared" si="0"/>
         <v>1.2683825729020834E-3</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -32728,11 +28979,11 @@
         <v>8.0435838497211048E-5</v>
       </c>
       <c r="L31">
-        <f>SUM(J31:K31)</f>
+        <f t="shared" si="0"/>
         <v>1.3612218822604946E-3</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32781,11 +29032,11 @@
         <v>1.7081647167707613E-4</v>
       </c>
       <c r="L32">
-        <f>SUM(J32:K32)</f>
+        <f t="shared" si="0"/>
         <v>1.4379641161179318E-3</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -32834,11 +29085,11 @@
         <v>1.5781837697216121E-3</v>
       </c>
       <c r="L33">
-        <f>SUM(J33:K33)</f>
+        <f t="shared" si="0"/>
         <v>1.5827318497496283E-3</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32887,11 +29138,11 @@
         <v>1.7553335133675399E-3</v>
       </c>
       <c r="L34">
-        <f>SUM(J34:K34)</f>
+        <f t="shared" ref="L34:L65" si="2">SUM(J34:K34)</f>
         <v>1.7553335133675399E-3</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32940,11 +29191,11 @@
         <v>2.4131551428932582E-3</v>
       </c>
       <c r="L35">
-        <f>SUM(J35:K35)</f>
+        <f t="shared" si="2"/>
         <v>2.4361375728255748E-3</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -32993,11 +29244,11 @@
         <v>1.4444842427907905E-3</v>
       </c>
       <c r="L36">
-        <f>SUM(J36:K36)</f>
+        <f t="shared" si="2"/>
         <v>4.374555938533085E-3</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -33046,11 +29297,11 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <f>SUM(J37:K37)</f>
+        <f t="shared" si="2"/>
         <v>4.5454545454545452E-3</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -33099,11 +29350,11 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <f>SUM(J38:K38)</f>
+        <f t="shared" si="2"/>
         <v>4.608294930875576E-3</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -33152,11 +29403,11 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <f>SUM(J39:K39)</f>
+        <f t="shared" si="2"/>
         <v>4.6511627906976744E-3</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -33205,11 +29456,11 @@
         <v>4.6948356807511738E-3</v>
       </c>
       <c r="L40">
-        <f>SUM(J40:K40)</f>
+        <f t="shared" si="2"/>
         <v>4.6948356807511738E-3</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -33258,11 +29509,11 @@
         <v>1.7949798281205812E-3</v>
       </c>
       <c r="L41">
-        <f>SUM(J41:K41)</f>
+        <f t="shared" si="2"/>
         <v>4.8828068636334781E-3</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -33311,11 +29562,11 @@
         <v>1.2476606363069245E-3</v>
       </c>
       <c r="L42">
-        <f>SUM(J42:K42)</f>
+        <f t="shared" si="2"/>
         <v>5.4659418352493837E-3</v>
       </c>
       <c r="N42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -33364,11 +29615,11 @@
         <v>1.035291278037343E-2</v>
       </c>
       <c r="L43">
-        <f>SUM(J43:K43)</f>
+        <f t="shared" si="2"/>
         <v>1.0434805096288123E-2</v>
       </c>
       <c r="N43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -33417,11 +29668,11 @@
         <v>1.4512387380636963E-2</v>
       </c>
       <c r="L44">
-        <f>SUM(J44:K44)</f>
+        <f t="shared" si="2"/>
         <v>1.451838175791108E-2</v>
       </c>
       <c r="N44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -33470,11 +29721,11 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <f>SUM(J45:K45)</f>
+        <f t="shared" si="2"/>
         <v>1.5828303557665863E-2</v>
       </c>
       <c r="N45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -33523,11 +29774,11 @@
         <v>1.7840954875100724E-2</v>
       </c>
       <c r="L46">
-        <f>SUM(J46:K46)</f>
+        <f t="shared" si="2"/>
         <v>1.8214477571850657E-2</v>
       </c>
       <c r="N46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -33576,11 +29827,11 @@
         <v>9.3690997826938842E-3</v>
       </c>
       <c r="L47">
-        <f>SUM(J47:K47)</f>
+        <f t="shared" si="2"/>
         <v>2.258558654839514E-2</v>
       </c>
       <c r="N47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -33629,11 +29880,11 @@
         <v>2.2418192177165647E-2</v>
       </c>
       <c r="L48">
-        <f>SUM(J48:K48)</f>
+        <f t="shared" si="2"/>
         <v>2.2851693130867747E-2</v>
       </c>
       <c r="N48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -33682,11 +29933,11 @@
         <v>3.6821412369575077E-2</v>
       </c>
       <c r="L49">
-        <f>SUM(J49:K49)</f>
+        <f t="shared" si="2"/>
         <v>3.6972629668834113E-2</v>
       </c>
       <c r="N49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -33735,11 +29986,11 @@
         <v>5.9530337509938859E-3</v>
       </c>
       <c r="L50">
-        <f>SUM(J50:K50)</f>
+        <f t="shared" si="2"/>
         <v>4.1763770460340528E-2</v>
       </c>
       <c r="N50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -33788,11 +30039,11 @@
         <v>4.7768206734534066E-2</v>
       </c>
       <c r="L51">
-        <f>SUM(J51:K51)</f>
+        <f t="shared" si="2"/>
         <v>4.7924823805794832E-2</v>
       </c>
       <c r="N51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -33841,11 +30092,11 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <f>SUM(J52:K52)</f>
+        <f t="shared" si="2"/>
         <v>6.1125605665300037E-2</v>
       </c>
       <c r="N52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -33894,11 +30145,11 @@
         <v>2.5254181698917678E-2</v>
       </c>
       <c r="L53">
-        <f>SUM(J53:K53)</f>
+        <f t="shared" si="2"/>
         <v>6.7016508144746911E-2</v>
       </c>
       <c r="N53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -33947,11 +30198,11 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <f>SUM(J54:K54)</f>
+        <f t="shared" si="2"/>
         <v>6.8605592108632638E-2</v>
       </c>
       <c r="N54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34000,11 +30251,11 @@
         <v>1.2760867650943673E-2</v>
       </c>
       <c r="L55">
-        <f>SUM(J55:K55)</f>
+        <f t="shared" si="2"/>
         <v>7.6590889078047494E-2</v>
       </c>
       <c r="N55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -34053,11 +30304,11 @@
         <v>9.4619666048237475E-2</v>
       </c>
       <c r="L56">
-        <f>SUM(J56:K56)</f>
+        <f t="shared" si="2"/>
         <v>0.11688311688311688</v>
       </c>
       <c r="N56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34106,11 +30357,11 @@
         <v>5.5355402177367237E-2</v>
       </c>
       <c r="L57">
-        <f>SUM(J57:K57)</f>
+        <f t="shared" si="2"/>
         <v>0.11689869779299658</v>
       </c>
       <c r="N57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34159,11 +30410,11 @@
         <v>2.3915706934574859E-3</v>
       </c>
       <c r="L58">
-        <f>SUM(J58:K58)</f>
+        <f t="shared" si="2"/>
         <v>0.15113942661112473</v>
       </c>
       <c r="N58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34212,11 +30463,11 @@
         <v>6.9415290670917187E-2</v>
       </c>
       <c r="L59">
-        <f>SUM(J59:K59)</f>
+        <f t="shared" si="2"/>
         <v>0.16707263686059692</v>
       </c>
       <c r="N59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34265,11 +30516,11 @@
         <v>1.9534730652327123E-2</v>
       </c>
       <c r="L60">
-        <f>SUM(J60:K60)</f>
+        <f t="shared" si="2"/>
         <v>0.18715091603977735</v>
       </c>
       <c r="N60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34318,11 +30569,11 @@
         <v>3.3668341708542715E-2</v>
       </c>
       <c r="L61">
-        <f>SUM(J61:K61)</f>
+        <f t="shared" si="2"/>
         <v>0.19045226130653267</v>
       </c>
       <c r="N61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34371,11 +30622,11 @@
         <v>3.5049247225818696E-2</v>
       </c>
       <c r="L62">
-        <f>SUM(J62:K62)</f>
+        <f t="shared" si="2"/>
         <v>0.20463527226632142</v>
       </c>
       <c r="N62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34424,11 +30675,11 @@
         <v>5.2502050861361775E-2</v>
       </c>
       <c r="L63">
-        <f>SUM(J63:K63)</f>
+        <f t="shared" si="2"/>
         <v>0.23032379481735271</v>
       </c>
       <c r="N63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34477,11 +30728,11 @@
         <v>0.20421917243682433</v>
       </c>
       <c r="L64">
-        <f>SUM(J64:K64)</f>
+        <f t="shared" si="2"/>
         <v>0.25742067735552104</v>
       </c>
       <c r="N64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -34530,11 +30781,11 @@
         <v>2.2142857142857141E-2</v>
       </c>
       <c r="L65">
-        <f>SUM(J65:K65)</f>
+        <f t="shared" si="2"/>
         <v>0.27071428571428574</v>
       </c>
       <c r="N65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34583,11 +30834,11 @@
         <v>5.4851442342335133E-2</v>
       </c>
       <c r="L66">
-        <f>SUM(J66:K66)</f>
+        <f t="shared" ref="L66:L97" si="3">SUM(J66:K66)</f>
         <v>0.30923691563718464</v>
       </c>
       <c r="N66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -34636,11 +30887,11 @@
         <v>3.0012605523511211E-2</v>
       </c>
       <c r="L67">
-        <f>SUM(J67:K67)</f>
+        <f t="shared" si="3"/>
         <v>0.31773940945032275</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N106" si="1">SUM(B67:K67)</f>
+        <f t="shared" ref="N67:N106" si="4">SUM(B67:K67)</f>
         <v>1</v>
       </c>
     </row>
@@ -34689,11 +30940,11 @@
         <v>3.4094100805465204E-2</v>
       </c>
       <c r="L68">
-        <f>SUM(J68:K68)</f>
+        <f t="shared" si="3"/>
         <v>0.32292299003663405</v>
       </c>
       <c r="N68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -34742,11 +30993,11 @@
         <v>1.0850609573597781E-2</v>
       </c>
       <c r="L69">
-        <f>SUM(J69:K69)</f>
+        <f t="shared" si="3"/>
         <v>0.3318873835225572</v>
       </c>
       <c r="N69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -34795,11 +31046,11 @@
         <v>2.0455405917031749E-2</v>
       </c>
       <c r="L70">
-        <f>SUM(J70:K70)</f>
+        <f t="shared" si="3"/>
         <v>0.33227684929778067</v>
       </c>
       <c r="N70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -34848,11 +31099,11 @@
         <v>0.14352331606217616</v>
       </c>
       <c r="L71">
-        <f>SUM(J71:K71)</f>
+        <f t="shared" si="3"/>
         <v>0.33561096718480138</v>
       </c>
       <c r="N71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -34901,11 +31152,11 @@
         <v>3.2370539365502993E-2</v>
       </c>
       <c r="L72">
-        <f>SUM(J72:K72)</f>
+        <f t="shared" si="3"/>
         <v>0.33775271548075131</v>
       </c>
       <c r="N72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -34954,11 +31205,11 @@
         <v>2.5812258837389388E-2</v>
       </c>
       <c r="L73">
-        <f>SUM(J73:K73)</f>
+        <f t="shared" si="3"/>
         <v>0.341019650409356</v>
       </c>
       <c r="N73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -35007,11 +31258,11 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <f>SUM(J74:K74)</f>
+        <f t="shared" si="3"/>
         <v>0.34286916070364493</v>
       </c>
       <c r="N74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -35060,11 +31311,11 @@
         <v>1.4951257324539507E-2</v>
       </c>
       <c r="L75">
-        <f>SUM(J75:K75)</f>
+        <f t="shared" si="3"/>
         <v>0.34536353364689809</v>
       </c>
       <c r="N75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -35113,11 +31364,11 @@
         <v>2.8821316478978863E-2</v>
       </c>
       <c r="L76">
-        <f>SUM(J76:K76)</f>
+        <f t="shared" si="3"/>
         <v>0.34931225716058029</v>
       </c>
       <c r="N76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -35166,11 +31417,11 @@
         <v>4.3607776778946998E-2</v>
       </c>
       <c r="L77">
-        <f>SUM(J77:K77)</f>
+        <f t="shared" si="3"/>
         <v>0.35441453827578306</v>
       </c>
       <c r="N77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -35219,11 +31470,11 @@
         <v>7.4494033884896825E-3</v>
       </c>
       <c r="L78">
-        <f>SUM(J78:K78)</f>
+        <f t="shared" si="3"/>
         <v>0.35803283011404841</v>
       </c>
       <c r="N78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -35272,11 +31523,11 @@
         <v>0.30497534115578451</v>
       </c>
       <c r="L79">
-        <f>SUM(J79:K79)</f>
+        <f t="shared" si="3"/>
         <v>0.35910526376673002</v>
       </c>
       <c r="N79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -35325,11 +31576,11 @@
         <v>5.286731525690206E-2</v>
       </c>
       <c r="L80">
-        <f>SUM(J80:K80)</f>
+        <f t="shared" si="3"/>
         <v>0.36641793545988871</v>
       </c>
       <c r="N80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -35378,11 +31629,11 @@
         <v>2.5696002247367401E-3</v>
       </c>
       <c r="L81">
-        <f>SUM(J81:K81)</f>
+        <f t="shared" si="3"/>
         <v>0.3774420497312661</v>
       </c>
       <c r="N81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -35431,11 +31682,11 @@
         <v>2.7801705194691044E-2</v>
       </c>
       <c r="L82">
-        <f>SUM(J82:K82)</f>
+        <f t="shared" si="3"/>
         <v>0.42556034103893819</v>
       </c>
       <c r="N82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -35484,11 +31735,11 @@
         <v>0.11937339766235339</v>
       </c>
       <c r="L83">
-        <f>SUM(J83:K83)</f>
+        <f t="shared" si="3"/>
         <v>0.43000585420998444</v>
       </c>
       <c r="N83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -35537,11 +31788,11 @@
         <v>1.0645606600532922E-2</v>
       </c>
       <c r="L84">
-        <f>SUM(J84:K84)</f>
+        <f t="shared" si="3"/>
         <v>0.44151016083983435</v>
       </c>
       <c r="N84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -35590,11 +31841,11 @@
         <v>0.23088259676141701</v>
       </c>
       <c r="L85">
-        <f>SUM(J85:K85)</f>
+        <f t="shared" si="3"/>
         <v>0.54879059742460812</v>
       </c>
       <c r="N85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -35643,11 +31894,11 @@
         <v>5.4479927500135035E-2</v>
       </c>
       <c r="L86">
-        <f>SUM(J86:K86)</f>
+        <f t="shared" si="3"/>
         <v>0.58567347453202179</v>
       </c>
       <c r="N86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -35696,11 +31947,11 @@
         <v>0.23663738371038379</v>
       </c>
       <c r="L87">
-        <f>SUM(J87:K87)</f>
+        <f t="shared" si="3"/>
         <v>0.59700951048226181</v>
       </c>
       <c r="N87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -35749,11 +32000,11 @@
         <v>0.60110294117647056</v>
       </c>
       <c r="L88">
-        <f>SUM(J88:K88)</f>
+        <f t="shared" si="3"/>
         <v>0.60110294117647056</v>
       </c>
       <c r="N88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -35802,11 +32053,11 @@
         <v>6.1406345048308518E-2</v>
       </c>
       <c r="L89">
-        <f>SUM(J89:K89)</f>
+        <f t="shared" si="3"/>
         <v>0.66903596696497569</v>
       </c>
       <c r="N89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -35855,11 +32106,11 @@
         <v>0.17764933211529799</v>
       </c>
       <c r="L90">
-        <f>SUM(J90:K90)</f>
+        <f t="shared" si="3"/>
         <v>0.67688104369350977</v>
       </c>
       <c r="N90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -35908,11 +32159,11 @@
         <v>1.9041498732196616E-2</v>
       </c>
       <c r="L91">
-        <f>SUM(J91:K91)</f>
+        <f t="shared" si="3"/>
         <v>0.68661856231794971</v>
       </c>
       <c r="N91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -35961,11 +32212,11 @@
         <v>7.602363246230269E-2</v>
       </c>
       <c r="L92">
-        <f>SUM(J92:K92)</f>
+        <f t="shared" si="3"/>
         <v>0.7051233061932336</v>
       </c>
       <c r="N92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -36014,11 +32265,11 @@
         <v>0.10990685859441152</v>
       </c>
       <c r="L93">
-        <f>SUM(J93:K93)</f>
+        <f t="shared" si="3"/>
         <v>0.71998306519898392</v>
       </c>
       <c r="N93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -36067,11 +32318,11 @@
         <v>0.13267789479243225</v>
       </c>
       <c r="L94">
-        <f>SUM(J94:K94)</f>
+        <f t="shared" si="3"/>
         <v>0.74358240878064663</v>
       </c>
       <c r="N94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -36120,11 +32371,11 @@
         <v>8.3324472421297383E-2</v>
       </c>
       <c r="L95">
-        <f>SUM(J95:K95)</f>
+        <f t="shared" si="3"/>
         <v>0.76977223911702786</v>
       </c>
       <c r="N95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -36173,11 +32424,11 @@
         <v>4.3395056737015172E-2</v>
       </c>
       <c r="L96">
-        <f>SUM(J96:K96)</f>
+        <f t="shared" si="3"/>
         <v>0.85280720196221127</v>
       </c>
       <c r="N96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -36226,11 +32477,11 @@
         <v>4.2246681774036905E-2</v>
       </c>
       <c r="L97">
-        <f>SUM(J97:K97)</f>
+        <f t="shared" si="3"/>
         <v>0.86960643758960365</v>
       </c>
       <c r="N97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -36279,11 +32530,11 @@
         <v>6.4140253354000749E-5</v>
       </c>
       <c r="L98">
-        <f>SUM(J98:K98)</f>
+        <f t="shared" ref="L98:L129" si="5">SUM(J98:K98)</f>
         <v>0.89724731412689085</v>
       </c>
       <c r="N98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -36332,11 +32583,11 @@
         <v>0.16218637992831542</v>
       </c>
       <c r="L99">
-        <f>SUM(J99:K99)</f>
+        <f t="shared" si="5"/>
         <v>0.92114695340501795</v>
       </c>
       <c r="N99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -36385,11 +32636,11 @@
         <v>3.6923076923076922E-3</v>
       </c>
       <c r="L100">
-        <f>SUM(J100:K100)</f>
+        <f t="shared" si="5"/>
         <v>0.93692307692307686</v>
       </c>
       <c r="N100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -36438,11 +32689,11 @@
         <v>0.99089100154764542</v>
       </c>
       <c r="L101">
-        <f>SUM(J101:K101)</f>
+        <f t="shared" si="5"/>
         <v>0.99093521998673451</v>
       </c>
       <c r="N101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -36491,11 +32742,11 @@
         <v>0.99636324930369524</v>
       </c>
       <c r="L102">
-        <f>SUM(J102:K102)</f>
+        <f t="shared" si="5"/>
         <v>0.9963809895509943</v>
       </c>
       <c r="N102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -36544,11 +32795,11 @@
         <v>0.26612868387174815</v>
       </c>
       <c r="L103">
-        <f>SUM(J103:K103)</f>
+        <f t="shared" si="5"/>
         <v>0.99820288402553981</v>
       </c>
       <c r="N103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -36597,11 +32848,11 @@
         <v>3.1695704102017531E-2</v>
       </c>
       <c r="L104">
-        <f>SUM(J104:K104)</f>
+        <f t="shared" si="5"/>
         <v>0.99890741405258332</v>
       </c>
       <c r="N104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -36650,11 +32901,11 @@
         <v>0.99896700997535703</v>
       </c>
       <c r="L105">
-        <f>SUM(J105:K105)</f>
+        <f t="shared" si="5"/>
         <v>0.99897138705173261</v>
       </c>
       <c r="N105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -36703,11 +32954,11 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <f>SUM(J106:K106)</f>
+        <f t="shared" si="5"/>
         <v>0.9990563644213778</v>
       </c>
       <c r="N106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -36720,7 +32971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -36733,7 +32984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B10"/>
   <sheetViews>

--- a/benchmark-results-hsw1-assume-single-threaded-2016-12-12.xlsx
+++ b/benchmark-results-hsw1-assume-single-threaded-2016-12-12.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mtake/swift/SwiftBenchmarkSuite-20161212/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mtake/swift/SwiftBenchmarkSuite-20170117/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-26040" yWindow="-5720" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="output.csv" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="DataByARC" sheetId="24" r:id="rId4"/>
     <sheet name="ChartByARC" sheetId="27" r:id="rId5"/>
     <sheet name="Environment" sheetId="21" r:id="rId6"/>
+    <sheet name="ChartByARC (2)" sheetId="28" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DataByARC!$A$1:$J$93</definedName>
@@ -631,7 +632,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="123">
   <si>
     <t>others</t>
   </si>
@@ -978,9 +979,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Swiftc flags for building benchmark suite: -g -Ounchecked -whole-module-optimization -assume-single-threaded</t>
-  </si>
-  <si>
     <t>Toolchain: Swift open source (cloned from github on 2016-12-12)</t>
   </si>
   <si>
@@ -999,17 +997,17 @@
     <t>libswiftCore(atomicRC)</t>
   </si>
   <si>
-    <t>libswiftCore(nonatomicRC+atomicRC)</t>
+    <t>libswiftCore(atomicRC+nonatomicRC)</t>
   </si>
   <si>
-    <t>libswiftCore(atomicRC+nonatomicRC)</t>
+    <t>Swiftc flags for building benchmark suite: -g -Ounchecked -whole-module-optimization -Xfrontend -assume-single-threaded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1029,6 +1027,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -8234,11 +8238,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-647487840"/>
-        <c:axId val="-647853408"/>
+        <c:axId val="-1833081424"/>
+        <c:axId val="-1833078240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-647487840"/>
+        <c:axId val="-1833081424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8280,7 +8284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-647853408"/>
+        <c:crossAx val="-1833078240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8288,7 +8292,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-647853408"/>
+        <c:axId val="-1833078240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8338,7 +8342,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-647487840"/>
+        <c:crossAx val="-1833081424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8483,8 +8487,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Swift benchmark suite CPU samples (sorted by libswiftCore(atomicRC+nonatomicRC))</a:t>
+              <a:t>Swift benchmark suite CPU samples</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> (w/-assume-single-threaded only)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -15577,11 +15588,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-531975712"/>
-        <c:axId val="-531972528"/>
+        <c:axId val="-1836475360"/>
+        <c:axId val="-1836472176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-531975712"/>
+        <c:axId val="-1836475360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15623,7 +15634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-531972528"/>
+        <c:crossAx val="-1836472176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15631,7 +15642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-531972528"/>
+        <c:axId val="-1836472176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15681,7 +15692,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-531975712"/>
+        <c:crossAx val="-1836475360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15772,6 +15783,7037 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Swift benchmark suite CPU samples (w/-assume-single-threaded only)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataByARC!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>main</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataByARC!$A$2:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>ArrayInClass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ackermann</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TypeFlood</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memset</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenClose</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CaptureProp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ArrayValueProp3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MonteCarloPi</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ArrayValueProp4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DictionarySwap</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DeadArray</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>StringEqualPointerComparison</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>StaticArray</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>GlobalClass</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ArrayValueProp2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ByteSwap</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>UTF8Decode</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ProtocolDispatch</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Join</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>BitCount</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ProtocolDispatch2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Array2D</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MonteCarloE</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NopDeinit</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ArrayAppendReserved</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ArrayOfGenericPOD</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ArrayOfPOD</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ArrayAppendRepeatCol</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>PopFrontArray</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>PopFrontArrayGeneric</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>ArrayAppendSequence</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sim2DArray</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>ArrayAppendLazyMap</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>ArrayAppendOptionals</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>ArrayValueProp</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>PolymorphicCalls</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>ClassArrayGetter</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>StringWalk</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>ArrayAppendGenericStructs</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>ArrayAppendArrayOfInt</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>ArrayAppend</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Chars</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Calculator</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>ArraySubscript</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Walsh</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>MapReduce</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>ObserverPartiallyAppliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>SortStrings</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>ObserverClosure</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>StringWithCString</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Histogram</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Phonebook</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>SortStringsUnicode</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>RC4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>SortLettersInPlace</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Dictionary</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>RangeAssignment</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>ErrorHandling</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>XorLoop</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>IterateData</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>DictionaryOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>SevenBoom</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>PopFrontUnsafePointer</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>HashTest</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Dictionary2OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>AnyHashableWithAClass</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Dictionary2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>StringInterpolation</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Prims</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>StrComplexWalk</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>ArrayOfRef</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>DictionaryLiteral</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>ArrayOfGenericRef</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>StringBuilder</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Dictionary3OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>DictionaryRemove</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>NSError</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>AngryPhonebook</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Dictionary3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>TwoSum</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>ObjectAllocation</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>SuperChars</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>RGBHistogram</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>ArrayLiteral</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>RGBHistogramOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>StrToInt</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>SetUnion_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>DictionarySwapOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Hanoi</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>SetExclusiveOr_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>ObserverUnappliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>DictionaryRemoveOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>StackPromo</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>SetExclusiveOr</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>SetUnion</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>ArrayAppendStrings</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>ObserverForwarderStruct</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>SetIntersect</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Integrate</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>RecursiveOwnedParameter</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>SetIntersect_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>SetIsSubsetOf_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>LinkedList</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>SetIsSubsetOf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataByARC!$B$2:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>0.994864680685358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.471032745591939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00975609756097561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00210970464135021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.08189203515822E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.999365016010668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00956937799043062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.000107851596203624</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.999390593633496</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.93829003273255E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00495049504950495</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.998939167419118</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.752701080432173</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.942779977569751</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.86483146838745E-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.997518493769371</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.994789989755598</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.994139636624822</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.557693458257051</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.622727665516002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.596336600668789</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00100996459252039</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.00460829493087557</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.00108506819191855</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0034607729554704</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.707635811940762</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.984270754032717</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0219093703436165</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.840669486972871</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.23857415343457E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.56086496295176E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.42719271790091E-6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.000109325461900076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.00185528756957328</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.10469336495981E-6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.38934795723999E-6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0381048161805788</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.99066185126803E-6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.1743216678863E-6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.136335056356765</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.115583204141157</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0861244757446E-6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.59239237919441E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.227419949481869</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.13119007192402E-6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0518121965418525</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.54436481438161E-6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0612361252160279</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.77402472990473E-5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.63998064644335E-6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataByARC!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>others</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataByARC!$A$2:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>ArrayInClass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ackermann</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TypeFlood</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memset</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenClose</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CaptureProp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ArrayValueProp3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MonteCarloPi</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ArrayValueProp4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DictionarySwap</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DeadArray</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>StringEqualPointerComparison</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>StaticArray</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>GlobalClass</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ArrayValueProp2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ByteSwap</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>UTF8Decode</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ProtocolDispatch</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Join</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>BitCount</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ProtocolDispatch2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Array2D</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MonteCarloE</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NopDeinit</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ArrayAppendReserved</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ArrayOfGenericPOD</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ArrayOfPOD</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ArrayAppendRepeatCol</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>PopFrontArray</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>PopFrontArrayGeneric</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>ArrayAppendSequence</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sim2DArray</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>ArrayAppendLazyMap</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>ArrayAppendOptionals</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>ArrayValueProp</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>PolymorphicCalls</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>ClassArrayGetter</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>StringWalk</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>ArrayAppendGenericStructs</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>ArrayAppendArrayOfInt</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>ArrayAppend</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Chars</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Calculator</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>ArraySubscript</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Walsh</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>MapReduce</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>ObserverPartiallyAppliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>SortStrings</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>ObserverClosure</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>StringWithCString</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Histogram</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Phonebook</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>SortStringsUnicode</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>RC4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>SortLettersInPlace</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Dictionary</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>RangeAssignment</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>ErrorHandling</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>XorLoop</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>IterateData</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>DictionaryOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>SevenBoom</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>PopFrontUnsafePointer</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>HashTest</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Dictionary2OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>AnyHashableWithAClass</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Dictionary2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>StringInterpolation</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Prims</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>StrComplexWalk</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>ArrayOfRef</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>DictionaryLiteral</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>ArrayOfGenericRef</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>StringBuilder</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Dictionary3OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>DictionaryRemove</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>NSError</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>AngryPhonebook</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Dictionary3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>TwoSum</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>ObjectAllocation</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>SuperChars</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>RGBHistogram</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>ArrayLiteral</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>RGBHistogramOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>StrToInt</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>SetUnion_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>DictionarySwapOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Hanoi</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>SetExclusiveOr_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>ObserverUnappliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>DictionaryRemoveOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>StackPromo</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>SetExclusiveOr</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>SetUnion</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>ArrayAppendStrings</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>ObserverForwarderStruct</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>SetIntersect</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Integrate</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>RecursiveOwnedParameter</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>SetIntersect_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>SetIsSubsetOf_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>LinkedList</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>SetIsSubsetOf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataByARC!$C$2:$C$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>0.000170366043613707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.017632241813602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.028436018957346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0341463414634146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0253164556962025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.003954067481108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.02373328253461E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0287081339712919</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.024390243902439</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.000647109577221743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3898288882516E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.17040906873836E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00022657419812436</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0297029702970297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.44069452462365E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00144796380090498</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.00840336134453781</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.028436018957346</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.000137328053832597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00102639296187683</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.11889888103247E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.35792453400402E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.000117078881896678</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.1620659821414E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.17952399755896E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.85621165762795E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.48460322439383E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.09327202521456E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.000472589792060491</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.1929719729267E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.11032101607135E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0363636363636364</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0368663594470046</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0372093023255814</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0516431924882629</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.04014752310099E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.000133677925318599</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.58607313414823E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.19606409188181E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.00286221185203543</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.00033155385441848</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.000320615581917281</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.000123857415343457</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.00120973839407228</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.00281715241411455</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.00156617071260767</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.000372717107715244</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.00163988192850115</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.00302857513563714</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.00552922011212539</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.012987012987013</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.00279937014171811</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.00468512619456016</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.97998585652227E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.00190317703272036</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.00452261306532663</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.000477898061970838</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.00371085267577088</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.48688169903758E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.00642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.80538986877607E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.00263188051491654</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.00954960995188953</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0030209310214099</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.00252402329312925</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.55613126079447E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.58716083394315E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.61852790702292E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.5052052297662E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.94145623669759E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.32057426604245E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.00599298468263621</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.000395543542751664</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.47036118748048E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.43754551354514E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0035776106022862</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.27379801353608E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.82617033732362E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.000449452630903079</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.000128953816111858</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.40065778023178E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.10969447251807E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0128676470588235</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.28815770004329E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.1048997857212E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.19108556101173E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.52723317950677E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.00143945808636748</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.52070836652334E-5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.77218240719081E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.000215627611115603</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.000231235258752254</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.49434318598892E-5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.00156810035842294</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.00215384615384615</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.000309529073623701</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.000124181731093331</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.50397871108769E-5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.74906942740998E-5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.000126935214892565</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.11577785394124E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataByARC!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>libFoundation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataByARC!$A$2:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>ArrayInClass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ackermann</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TypeFlood</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memset</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenClose</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CaptureProp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ArrayValueProp3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MonteCarloPi</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ArrayValueProp4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DictionarySwap</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DeadArray</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>StringEqualPointerComparison</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>StaticArray</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>GlobalClass</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ArrayValueProp2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ByteSwap</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>UTF8Decode</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ProtocolDispatch</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Join</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>BitCount</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ProtocolDispatch2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Array2D</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MonteCarloE</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NopDeinit</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ArrayAppendReserved</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ArrayOfGenericPOD</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ArrayOfPOD</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ArrayAppendRepeatCol</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>PopFrontArray</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>PopFrontArrayGeneric</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>ArrayAppendSequence</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sim2DArray</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>ArrayAppendLazyMap</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>ArrayAppendOptionals</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>ArrayValueProp</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>PolymorphicCalls</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>ClassArrayGetter</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>StringWalk</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>ArrayAppendGenericStructs</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>ArrayAppendArrayOfInt</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>ArrayAppend</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Chars</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Calculator</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>ArraySubscript</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Walsh</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>MapReduce</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>ObserverPartiallyAppliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>SortStrings</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>ObserverClosure</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>StringWithCString</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Histogram</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Phonebook</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>SortStringsUnicode</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>RC4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>SortLettersInPlace</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Dictionary</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>RangeAssignment</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>ErrorHandling</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>XorLoop</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>IterateData</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>DictionaryOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>SevenBoom</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>PopFrontUnsafePointer</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>HashTest</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Dictionary2OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>AnyHashableWithAClass</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Dictionary2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>StringInterpolation</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Prims</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>StrComplexWalk</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>ArrayOfRef</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>DictionaryLiteral</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>ArrayOfGenericRef</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>StringBuilder</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Dictionary3OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>DictionaryRemove</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>NSError</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>AngryPhonebook</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Dictionary3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>TwoSum</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>ObjectAllocation</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>SuperChars</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>RGBHistogram</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>ArrayLiteral</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>RGBHistogramOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>StrToInt</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>SetUnion_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>DictionarySwapOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Hanoi</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>SetExclusiveOr_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>ObserverUnappliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>DictionaryRemoveOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>StackPromo</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>SetExclusiveOr</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>SetUnion</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>ArrayAppendStrings</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>ObserverForwarderStruct</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>SetIntersect</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Integrate</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>RecursiveOwnedParameter</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>SetIntersect_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>SetIsSubsetOf_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>LinkedList</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>SetIsSubsetOf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataByARC!$D$2:$D$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00251889168765743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.52488687782805E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00947867298578199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.00460829493087557</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.99437727411688E-6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.12249823206528E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.660502572515099</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.259161494544847</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.56909372782931E-6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.59239237919441E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.186157886010203</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.13119007192402E-6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.54436481438161E-6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.000307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataByARC!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ld</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataByARC!$A$2:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>ArrayInClass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ackermann</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TypeFlood</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memset</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenClose</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CaptureProp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ArrayValueProp3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MonteCarloPi</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ArrayValueProp4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DictionarySwap</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DeadArray</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>StringEqualPointerComparison</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>StaticArray</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>GlobalClass</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ArrayValueProp2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ByteSwap</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>UTF8Decode</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ProtocolDispatch</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Join</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>BitCount</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ProtocolDispatch2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Array2D</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MonteCarloE</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NopDeinit</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ArrayAppendReserved</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ArrayOfGenericPOD</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ArrayOfPOD</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ArrayAppendRepeatCol</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>PopFrontArray</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>PopFrontArrayGeneric</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>ArrayAppendSequence</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sim2DArray</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>ArrayAppendLazyMap</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>ArrayAppendOptionals</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>ArrayValueProp</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>PolymorphicCalls</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>ClassArrayGetter</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>StringWalk</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>ArrayAppendGenericStructs</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>ArrayAppendArrayOfInt</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>ArrayAppend</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Chars</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Calculator</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>ArraySubscript</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Walsh</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>MapReduce</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>ObserverPartiallyAppliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>SortStrings</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>ObserverClosure</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>StringWithCString</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Histogram</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Phonebook</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>SortStringsUnicode</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>RC4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>SortLettersInPlace</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Dictionary</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>RangeAssignment</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>ErrorHandling</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>XorLoop</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>IterateData</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>DictionaryOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>SevenBoom</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>PopFrontUnsafePointer</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>HashTest</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Dictionary2OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>AnyHashableWithAClass</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Dictionary2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>StringInterpolation</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Prims</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>StrComplexWalk</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>ArrayOfRef</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>DictionaryLiteral</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>ArrayOfGenericRef</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>StringBuilder</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Dictionary3OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>DictionaryRemove</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>NSError</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>AngryPhonebook</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Dictionary3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>TwoSum</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>ObjectAllocation</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>SuperChars</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>RGBHistogram</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>ArrayLiteral</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>RGBHistogramOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>StrToInt</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>SetUnion_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>DictionarySwapOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Hanoi</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>SetExclusiveOr_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>ObserverUnappliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>DictionaryRemoveOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>StackPromo</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>SetExclusiveOr</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>SetUnion</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>ArrayAppendStrings</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>ObserverForwarderStruct</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>SetIntersect</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Integrate</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>RecursiveOwnedParameter</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>SetIntersect_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>SetIsSubsetOf_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>LinkedList</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>SetIsSubsetOf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataByARC!$E$2:$E$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>0.00462422118380062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.478589420654912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90521327014218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.892682926829268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40295358649789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0780519976824172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000559390657268903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.904306220095694</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.893518518518518</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.917073170731707</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0207075064710958</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.000546673358187554</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00127815616423866</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00257112459610686</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.905</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.914285714285714</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.905940594059406</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.907407407407407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.000952282270280405</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0085972850678733</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.224489795918367</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.900473933649289</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00434872170469891</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0281524926686217</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00127685865312007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.00063464773692676</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0027806234450461</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0030362885453566</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00224958418590181</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.000572331927768617</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.000583881757732551</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.000886875605463153</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0131650013502565</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00225227813336704</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00109217101284182</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.895454545454545</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.903225806451613</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.87906976744186</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.892018779342723</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.00107352491328112</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.00285179574013011</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.000827543402927435</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.00109097666388927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0185968210407329</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.000759636046199301</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.00680417512735563</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.00235329089152568</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0142900347799788</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0197337756696735</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0141738449490994</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0118648279289353</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0204438613753143</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0367150715146631</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0477963838093281</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.346938775510204</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0181851940456254</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0316148002940456</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.00212152165860339</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0143995678266836</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0944723618090452</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.00289450315548295</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0297157747430391</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.000660799994315699</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.136428571428571</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.00136107797375521</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0247068260819741</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0870850736757542</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0219885468004869</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0190960390863036</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0020293609671848</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.00134877247356262</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.00119133502326413</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.000931383103909305</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.00122842052710408</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.000552416281158284</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0297401864875822</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0124596215966774</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0007287758493709</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.000572823195683107</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0259480048417548</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.00169640502768744</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.000754991218685023</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.00599056149475103</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.00348175303502017</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.000561153756129179</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.00101065070356837</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.354779411764706</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.00105221046401385</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.000804071718145499</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.00129923652391364</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.00110519972957879</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0160033869602032</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.000818564695216677</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.000673429314732507</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.00528287647233228</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.00432409933866716</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.000673472660217008</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0456989247311828</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0569230769230769</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.00813619279239443</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.00324646525572566</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.00158975643894558</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.000990825491529781</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.00084039866411629</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.000863515576663714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataByARC!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vmlinux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataByARC!$A$2:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>ArrayInClass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ackermann</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TypeFlood</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memset</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenClose</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CaptureProp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ArrayValueProp3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MonteCarloPi</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ArrayValueProp4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DictionarySwap</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DeadArray</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>StringEqualPointerComparison</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>StaticArray</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>GlobalClass</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ArrayValueProp2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ByteSwap</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>UTF8Decode</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ProtocolDispatch</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Join</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>BitCount</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ProtocolDispatch2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Array2D</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MonteCarloE</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NopDeinit</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ArrayAppendReserved</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ArrayOfGenericPOD</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ArrayOfPOD</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ArrayAppendRepeatCol</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>PopFrontArray</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>PopFrontArrayGeneric</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>ArrayAppendSequence</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sim2DArray</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>ArrayAppendLazyMap</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>ArrayAppendOptionals</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>ArrayValueProp</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>PolymorphicCalls</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>ClassArrayGetter</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>StringWalk</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>ArrayAppendGenericStructs</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>ArrayAppendArrayOfInt</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>ArrayAppend</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Chars</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Calculator</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>ArraySubscript</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Walsh</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>MapReduce</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>ObserverPartiallyAppliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>SortStrings</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>ObserverClosure</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>StringWithCString</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Histogram</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Phonebook</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>SortStringsUnicode</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>RC4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>SortLettersInPlace</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Dictionary</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>RangeAssignment</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>ErrorHandling</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>XorLoop</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>IterateData</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>DictionaryOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>SevenBoom</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>PopFrontUnsafePointer</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>HashTest</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Dictionary2OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>AnyHashableWithAClass</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Dictionary2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>StringInterpolation</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Prims</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>StrComplexWalk</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>ArrayOfRef</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>DictionaryLiteral</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>ArrayOfGenericRef</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>StringBuilder</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Dictionary3OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>DictionaryRemove</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>NSError</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>AngryPhonebook</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Dictionary3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>TwoSum</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>ObjectAllocation</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>SuperChars</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>RGBHistogram</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>ArrayLiteral</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>RGBHistogramOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>StrToInt</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>SetUnion_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>DictionarySwapOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Hanoi</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>SetExclusiveOr_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>ObserverUnappliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>DictionaryRemoveOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>StackPromo</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>SetExclusiveOr</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>SetUnion</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>ArrayAppendStrings</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>ObserverForwarderStruct</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>SetIntersect</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Integrate</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>RecursiveOwnedParameter</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>SetIntersect_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>SetIsSubsetOf_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>LinkedList</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>SetIsSubsetOf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataByARC!$F$2:$F$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataByARC!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>libicu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataByARC!$A$2:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>ArrayInClass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ackermann</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TypeFlood</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memset</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenClose</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CaptureProp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ArrayValueProp3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MonteCarloPi</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ArrayValueProp4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DictionarySwap</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DeadArray</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>StringEqualPointerComparison</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>StaticArray</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>GlobalClass</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ArrayValueProp2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ByteSwap</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>UTF8Decode</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ProtocolDispatch</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Join</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>BitCount</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ProtocolDispatch2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Array2D</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MonteCarloE</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NopDeinit</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ArrayAppendReserved</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ArrayOfGenericPOD</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ArrayOfPOD</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ArrayAppendRepeatCol</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>PopFrontArray</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>PopFrontArrayGeneric</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>ArrayAppendSequence</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sim2DArray</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>ArrayAppendLazyMap</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>ArrayAppendOptionals</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>ArrayValueProp</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>PolymorphicCalls</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>ClassArrayGetter</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>StringWalk</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>ArrayAppendGenericStructs</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>ArrayAppendArrayOfInt</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>ArrayAppend</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Chars</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Calculator</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>ArraySubscript</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Walsh</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>MapReduce</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>ObserverPartiallyAppliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>SortStrings</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>ObserverClosure</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>StringWithCString</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Histogram</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Phonebook</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>SortStringsUnicode</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>RC4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>SortLettersInPlace</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Dictionary</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>RangeAssignment</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>ErrorHandling</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>XorLoop</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>IterateData</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>DictionaryOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>SevenBoom</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>PopFrontUnsafePointer</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>HashTest</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Dictionary2OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>AnyHashableWithAClass</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Dictionary2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>StringInterpolation</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Prims</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>StrComplexWalk</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>ArrayOfRef</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>DictionaryLiteral</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>ArrayOfGenericRef</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>StringBuilder</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Dictionary3OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>DictionaryRemove</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>NSError</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>AngryPhonebook</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Dictionary3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>TwoSum</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>ObjectAllocation</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>SuperChars</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>RGBHistogram</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>ArrayLiteral</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>RGBHistogramOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>StrToInt</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>SetUnion_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>DictionarySwapOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Hanoi</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>SetExclusiveOr_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>ObserverUnappliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>DictionaryRemoveOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>StackPromo</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>SetExclusiveOr</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>SetUnion</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>ArrayAppendStrings</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>ObserverForwarderStruct</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>SetIntersect</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Integrate</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>RecursiveOwnedParameter</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>SetIntersect_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>SetIsSubsetOf_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>LinkedList</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>SetIsSubsetOf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataByARC!$G$2:$G$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>0.000292056074766355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0302267002518892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0521327014218009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0536585365853658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0274261603375527</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.823478469902242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.32610661078808E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.048780487804878</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00129421915444349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5847433323774E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.996800202154354</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.41807865079991E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0523809523809524</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0544554455445544</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.42751553009557E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.000588235294117647</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0132052821128451</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0521327014218009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.000251768098693095</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00175953079178886</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.92428090890369E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.69371698740442E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.000160983462607932</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.000212213715535676</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.000131624606621914</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.40305470565124E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.41632943354152E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.54808002801617E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.000742641101809344</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.000126403364627742</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.04626459897946E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0460829493087558</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0511627906976744</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0469483568075117</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.34880325058726E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.000163384130944954</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.17214626829647E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.59381500152857E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.814766232549424</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.03626107977438E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.000463111396102739</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.000148628898412148</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.000756086496295176</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.819352671839443</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.000939702427564604</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.000807553733383029</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.00120258008090084</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.762610242525019</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.677940356335672</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0185528756957328</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.69320474321849</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.65826513109532</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.000134699787847834</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.456768697239617</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.00552763819095477</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.06721754868798E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.476272740433335</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.90795695563048E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.00928571428571428</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0625775614286515</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.38005271400741</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.02011699933255E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.417219705888222</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.2451728054519E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.00011873920552677</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.89175383467493E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.28038069772521E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.00892325102778E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.22600310061224E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0861244757446E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.458520614104666</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.000725163161711385</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.62714824997397E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.04693189193142E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.488628899327029</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.000114265623626615</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.44112481579425E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.16929596455745</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.00020264171103292</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.00082222528973E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.18282412086346E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0238970588235294</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.48026283340549E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.63077952858664E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.38217112202346E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.05446635901355E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.00101608806096528</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.8409740039696E-5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.25323777725794E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.000296487965283955</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.000208111732877029</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.27601689026672E-5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.00246415770609319</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.00338461538461538</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.000530621269069202</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.000195142720289521</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.50397871108769E-5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.35581346772855E-5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.81478401316625E-5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.89622234190766E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataByARC!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>libc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataByARC!$A$2:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>ArrayInClass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ackermann</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TypeFlood</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memset</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenClose</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CaptureProp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ArrayValueProp3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MonteCarloPi</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ArrayValueProp4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DictionarySwap</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DeadArray</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>StringEqualPointerComparison</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>StaticArray</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>GlobalClass</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ArrayValueProp2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ByteSwap</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>UTF8Decode</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ProtocolDispatch</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Join</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>BitCount</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ProtocolDispatch2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Array2D</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MonteCarloE</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NopDeinit</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ArrayAppendReserved</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ArrayOfGenericPOD</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ArrayOfPOD</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ArrayAppendRepeatCol</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>PopFrontArray</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>PopFrontArrayGeneric</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>ArrayAppendSequence</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sim2DArray</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>ArrayAppendLazyMap</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>ArrayAppendOptionals</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>ArrayValueProp</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>PolymorphicCalls</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>ClassArrayGetter</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>StringWalk</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>ArrayAppendGenericStructs</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>ArrayAppendArrayOfInt</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>ArrayAppend</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Chars</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Calculator</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>ArraySubscript</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Walsh</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>MapReduce</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>ObserverPartiallyAppliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>SortStrings</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>ObserverClosure</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>StringWithCString</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Histogram</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Phonebook</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>SortStringsUnicode</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>RC4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>SortLettersInPlace</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Dictionary</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>RangeAssignment</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>ErrorHandling</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>XorLoop</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>IterateData</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>DictionaryOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>SevenBoom</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>PopFrontUnsafePointer</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>HashTest</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Dictionary2OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>AnyHashableWithAClass</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Dictionary2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>StringInterpolation</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Prims</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>StrComplexWalk</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>ArrayOfRef</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>DictionaryLiteral</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>ArrayOfGenericRef</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>StringBuilder</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Dictionary3OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>DictionaryRemove</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>NSError</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>AngryPhonebook</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Dictionary3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>TwoSum</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>ObjectAllocation</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>SuperChars</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>RGBHistogram</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>ArrayLiteral</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>RGBHistogramOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>StrToInt</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>SetUnion_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>DictionarySwapOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Hanoi</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>SetExclusiveOr_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>ObserverUnappliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>DictionaryRemoveOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>StackPromo</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>SetExclusiveOr</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>SetUnion</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>ArrayAppendStrings</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>ObserverForwarderStruct</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>SetIntersect</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Integrate</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>RecursiveOwnedParameter</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>SetIntersect_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>SetIsSubsetOf_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>LinkedList</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>SetIsSubsetOf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataByARC!$H$2:$H$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>2.43380062305296E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00947867298578199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00975609756097561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00421940928270042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.16378407031645E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.04746656506923E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00478468899521531</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00975609756097561</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.000215703192407248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9872861103145E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.81487009819765E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.763422058475845</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00495049504950495</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.00925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.93410502735961E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.572307692307692</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.00120048019207683</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00947867298578199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00048064818841409</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0997067448680352</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00201139562023752</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.000866344529773038</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.000614664129957559</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.000783558334285574</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.436120185231719</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.987424166019571</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.987157707083914</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.37291072573713</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.980218741560897</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.395941302873953</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.992900888416528</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0186046511627907</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.992444924131801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.98532513442058</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.27879161422685</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.02239899898145E-6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0879373153370937</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.254640019949414</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0505214397185959</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.875245728111296</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.769911989691E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.847768206734534</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.269163871288359</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.000327976385700229</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.02432078995619E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.000110070738794799</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.380333951762523</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0464645454772676</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.00191619701053663</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.243514766464243</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.104118996687292</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.384422110552764</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.109113278787427</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.107904260966076</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.427899970512688</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.224285714285714</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.233833195891146</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.138305512051644</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0207210227324206</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.085879043039288</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.163956947374114</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.451878238341969</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.252536122709598</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.454064107061307</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.505941322864454</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.429750111674593</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.194293138619453</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0521654063772407</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.259872107587844</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.200521325369497</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.295497548743293</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.00988180665204225</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.379027863232838</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.487033934230979</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0550579472856271</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.327155831475784</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.271922506766854</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.284879110627381</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.00735294117647059</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.008987631046785</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.199174037324083</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.234540133136818</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0102936421621939</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0867061812023709</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.00641209011253064</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.06330944431448E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0725586911404005</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0523979096332609</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.00065565592317423</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.000672043010752688</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.000307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.84368781782003E-5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.54804945980947E-5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.63998064644335E-6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.07116269354571E-5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.3131229126817E-5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataByARC!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>libswiftCore(others)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataByARC!$A$2:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>ArrayInClass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ackermann</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TypeFlood</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memset</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenClose</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CaptureProp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ArrayValueProp3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MonteCarloPi</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ArrayValueProp4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DictionarySwap</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DeadArray</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>StringEqualPointerComparison</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>StaticArray</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>GlobalClass</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ArrayValueProp2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ByteSwap</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>UTF8Decode</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ProtocolDispatch</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Join</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>BitCount</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ProtocolDispatch2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Array2D</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MonteCarloE</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NopDeinit</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ArrayAppendReserved</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ArrayOfGenericPOD</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ArrayOfPOD</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ArrayAppendRepeatCol</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>PopFrontArray</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>PopFrontArrayGeneric</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>ArrayAppendSequence</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sim2DArray</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>ArrayAppendLazyMap</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>ArrayAppendOptionals</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>ArrayValueProp</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>PolymorphicCalls</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>ClassArrayGetter</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>StringWalk</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>ArrayAppendGenericStructs</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>ArrayAppendArrayOfInt</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>ArrayAppend</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Chars</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Calculator</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>ArraySubscript</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Walsh</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>MapReduce</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>ObserverPartiallyAppliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>SortStrings</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>ObserverClosure</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>StringWithCString</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Histogram</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Phonebook</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>SortStringsUnicode</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>RC4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>SortLettersInPlace</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Dictionary</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>RangeAssignment</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>ErrorHandling</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>XorLoop</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>IterateData</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>DictionaryOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>SevenBoom</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>PopFrontUnsafePointer</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>HashTest</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Dictionary2OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>AnyHashableWithAClass</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Dictionary2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>StringInterpolation</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Prims</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>StrComplexWalk</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>ArrayOfRef</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>DictionaryLiteral</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>ArrayOfGenericRef</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>StringBuilder</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Dictionary3OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>DictionaryRemove</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>NSError</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>AngryPhonebook</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Dictionary3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>TwoSum</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>ObjectAllocation</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>SuperChars</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>RGBHistogram</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>ArrayLiteral</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>RGBHistogramOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>StrToInt</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>SetUnion_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>DictionarySwapOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Hanoi</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>SetExclusiveOr_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>ObserverUnappliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>DictionaryRemoveOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>StackPromo</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>SetExclusiveOr</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>SetUnion</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>ArrayAppendStrings</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>ObserverForwarderStruct</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>SetIntersect</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Integrate</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>RecursiveOwnedParameter</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>SetIntersect_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>SetIsSubsetOf_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>LinkedList</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>SetIsSubsetOf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataByARC!$I$2:$I$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>2.43380062305296E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00473933649289099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.537974683544304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0945062192581269</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.04746656506923E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.977027610008628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00184818443058877</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.233726061943416</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.93410502735961E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.417013574660633</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.051978668375638</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.869208211143695</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.996100775725956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.000208191321108249</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.000775647592565491</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.00081620659821414</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00246496990582858</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0105896875067674</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0107614377156558</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00180558777112242</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0036456926816095</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0028153476667088</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.000510854183426011</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00930232558139535</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00469483568075117</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.000409786391628814</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.00259929299230609</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.00223264313914797</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.99437727411688E-6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.126034038257527</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0520371676067687</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.715186491396815</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.923988704203721</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0714501738998941</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.116291503303814</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0876272513703993</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.656665424276307</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.909259866622936</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.129030275508148</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.192033079926032</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.122448979591837</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.122447449323902</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.152379318794413</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.587055350387823</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.235655540480544</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.320603015075377</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0223324136902543</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.152072576364426</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0547931092060808</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.352857142857143</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.392923195170575</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.136563657893732</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.521586286252729</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.140000399066185</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.482113689220618</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.21028713298791</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.408240425867734</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0672508620632599</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.150162992043184</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.107956486323147</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.455765034826915</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0991662700720921</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.368382886149384</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.253405773909825</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.110036898345211</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0945133664654777</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.193548387096774</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0821325473888205</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.327695913191435</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.120240222537443</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0899766536030872</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.117017803000855</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.320836507318891</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.123073490471119</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0774163354544883</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.283372034919608</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.174851820491109</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.249103319587901</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.229476355542323</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0688391148486564</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.073232206446839</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0401197284729275</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0284498207885305</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataByARC!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>libswiftCore(atomicRC)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataByARC!$A$2:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>ArrayInClass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ackermann</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TypeFlood</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memset</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenClose</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CaptureProp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ArrayValueProp3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MonteCarloPi</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ArrayValueProp4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DictionarySwap</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DeadArray</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>StringEqualPointerComparison</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>StaticArray</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>GlobalClass</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ArrayValueProp2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ByteSwap</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>UTF8Decode</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ProtocolDispatch</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Join</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>BitCount</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ProtocolDispatch2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Array2D</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MonteCarloE</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NopDeinit</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ArrayAppendReserved</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ArrayOfGenericPOD</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ArrayOfPOD</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ArrayAppendRepeatCol</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>PopFrontArray</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>PopFrontArrayGeneric</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>ArrayAppendSequence</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sim2DArray</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>ArrayAppendLazyMap</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>ArrayAppendOptionals</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>ArrayValueProp</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>PolymorphicCalls</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>ClassArrayGetter</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>StringWalk</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>ArrayAppendGenericStructs</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>ArrayAppendArrayOfInt</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>ArrayAppend</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Chars</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Calculator</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>ArraySubscript</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Walsh</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>MapReduce</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>ObserverPartiallyAppliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>SortStrings</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>ObserverClosure</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>StringWithCString</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Histogram</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Phonebook</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>SortStringsUnicode</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>RC4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>SortLettersInPlace</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Dictionary</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>RangeAssignment</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>ErrorHandling</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>XorLoop</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>IterateData</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>DictionaryOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>SevenBoom</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>PopFrontUnsafePointer</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>HashTest</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Dictionary2OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>AnyHashableWithAClass</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Dictionary2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>StringInterpolation</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Prims</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>StrComplexWalk</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>ArrayOfRef</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>DictionaryLiteral</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>ArrayOfGenericRef</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>StringBuilder</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Dictionary3OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>DictionaryRemove</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>NSError</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>AngryPhonebook</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Dictionary3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>TwoSum</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>ObjectAllocation</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>SuperChars</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>RGBHistogram</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>ArrayLiteral</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>RGBHistogramOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>StrToInt</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>SetUnion_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>DictionarySwapOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Hanoi</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>SetExclusiveOr_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>ObserverUnappliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>DictionaryRemoveOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>StackPromo</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>SetExclusiveOr</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>SetUnion</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>ArrayAppendStrings</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>ObserverForwarderStruct</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>SetIntersect</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Integrate</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>RecursiveOwnedParameter</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>SetIntersect_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>SetIsSubsetOf_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>LinkedList</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>SetIsSubsetOf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataByARC!$J$2:$J$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.000146627565982405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.000466808539850347</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.71584906800804E-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.000731743011854237</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.000914151389999836</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.58976199877948E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00128078604376328</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00126714764444086</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.54808002801617E-6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.29824299323167E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00293007169574229</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.00460829493087557</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00465116279069767</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0030878270355129</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.00421828119894246</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.18923159146941E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.99437727411688E-6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0158283035576659</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.000373522696749933</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0132164867657013</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.000433500953702098</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.000151217299259035</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0358107367093466</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.000156617071260767</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0611256056653</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0417623264458292</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0686055921086326</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0638300214271038</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0222634508348794</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0615432956156293</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.148747855917667</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0976573461896797</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.16761618538745</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.15678391959799</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.169586025040503</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.177821743955991</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0532015049186967</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.248571428571429</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.254385473294849</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.287726803926812</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.288828889231169</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.321036773948959</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.311821443380749</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.192087651122625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.305382176115248</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.315207391571967</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.342869160703645</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.330412276322359</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.320490940681601</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.310806761496836</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.350583426725559</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0541299226109455</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.313550620202987</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.374872449506529</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.397758635844247</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.310632456547631</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.430864554239301</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.317908000663191</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.531193547031887</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.360372126771878</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.607629621916667</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.499231711578212</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.667577063585753</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.629099673730931</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.610076206604572</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.610904513988214</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.68644776669573</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.809412145225196</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.827359755815567</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.897183173873537</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.758960573476702</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.933230769230769</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.42184390891002E-5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.77402472990473E-5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.732074200153792</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.967211709950566</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.37707637560568E-6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.999056364421378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DataByARC!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>libswiftCore(nonatomicRC)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DataByARC!$A$2:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>ArrayInClass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ackermann</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fibonacci</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TypeFlood</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Memset</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenClose</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CaptureProp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ArrayValueProp3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MonteCarloPi</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ArrayValueProp4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DictionarySwap</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DeadArray</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>StringEqualPointerComparison</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>StaticArray</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>GlobalClass</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ArrayValueProp2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ByteSwap</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>UTF8Decode</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ProtocolDispatch</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Join</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>BitCount</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ProtocolDispatch2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Array2D</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>MonteCarloE</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>NopDeinit</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ArrayAppendReserved</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ArrayOfGenericPOD</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ArrayOfPOD</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ArrayAppendRepeatCol</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>PopFrontArray</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>PopFrontArrayGeneric</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>ArrayAppendSequence</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sim2DArray</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>ArrayAppendLazyMap</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>ArrayAppendOptionals</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>ArrayValueProp</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>PolymorphicCalls</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>ClassArrayGetter</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>StringWalk</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>ArrayAppendGenericStructs</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>ArrayAppendArrayOfInt</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>ArrayAppend</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Chars</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Calculator</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>ArraySubscript</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Walsh</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>MapReduce</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>ObserverPartiallyAppliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>SortStrings</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>ObserverClosure</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>StringWithCString</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Histogram</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Phonebook</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>SortStringsUnicode</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>RC4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>SortLettersInPlace</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Dictionary</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>RangeAssignment</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>ErrorHandling</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>XorLoop</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>IterateData</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>DictionaryOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>SevenBoom</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>PopFrontUnsafePointer</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>HashTest</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Dictionary2OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>AnyHashableWithAClass</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Dictionary2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>StringInterpolation</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Prims</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>StrComplexWalk</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>ArrayOfRef</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>DictionaryLiteral</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>ArrayOfGenericRef</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>StringBuilder</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Dictionary3OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>DictionaryRemove</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>NSError</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>AngryPhonebook</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Dictionary3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>TwoSum</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>ObjectAllocation</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>SuperChars</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>RGBHistogram</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>ArrayLiteral</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>RGBHistogramOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>StrToInt</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>SetUnion_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>DictionarySwapOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Hanoi</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>SetExclusiveOr_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>ObserverUnappliedMethod</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>DictionaryRemoveOfObjects</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>StackPromo</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>SetExclusiveOr</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>SetUnion</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>ArrayAppendStrings</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>ObserverForwarderStruct</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>SetIntersect</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Integrate</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>RecursiveOwnedParameter</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>SetIntersect_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>SetIsSubsetOf_OfObjects</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>LinkedList</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>SetIsSubsetOf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DataByARC!$K$2:$K$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.28880089720995E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.86483146838745E-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.000695090378538833</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.92697204741695E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.63241319642828E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00123248495291429</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.0435838497211E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.000170816471677076</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00157818376972161</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00175533351336754</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00241315514289326</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00144448424279079</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00469483568075117</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.00179497982812058</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.00124766063630692</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0103529127803734</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.014512387380637</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0178409548751007</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.00936909978269388</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0224181921771656</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0368214123695751</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.00595303375099388</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0477682067345341</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0252541816989177</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0127608676509437</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0946196660482374</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0553554021773672</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.00239157069345749</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0694152906709172</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0195347306523271</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0336683417085427</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0350492472258187</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0525020508613618</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.204219172436824</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0221428571428571</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0548514423423351</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0300126055235112</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0340941008054652</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0108506095735978</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0204554059170317</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.143523316062176</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.032370539365503</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0258122588373894</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0149512573245395</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0288213164789789</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.043607776778947</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.00744940338848968</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.304975341155784</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.052867315256902</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.00256960022473674</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.027801705194691</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.119373397662353</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0106456066005329</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.230882596761417</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.054479927500135</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.236637383710384</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.60110294117647</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0614063450483085</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.177649332115298</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0190414987321966</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0760236324623027</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.109906858594412</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.132677894792432</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0833244724212974</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0433950567370152</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0422466817740369</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.41402533540007E-5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.162186379928315</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.00369230769230769</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.990891001547645</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.996363249303695</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.266128683871748</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.0316957041020175</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.998967009975357</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="-1738122912"/>
+        <c:axId val="-1738119728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1738122912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="none" w="sm" len="sm"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1738119728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1738119728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="15000"/>
+                      <a:lumOff val="85000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1738122912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15813,6 +22855,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16844,6 +23926,557 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="46000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -16918,176 +24551,213 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-force-single-threaded-runtime-benchmark-new" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_4" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_2" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-default" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded-callgraph_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_5" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_4" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_21" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_20" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_19" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_18" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_17" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_16" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_15" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_14" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_13" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_12" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_11" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_10" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded-callgraph_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_9" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_22" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_24" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_29" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_15" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_9" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_28" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded-callgraph" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-default-new" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_16" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_15" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_6" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_14" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_13" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_12" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_11" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_10" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_9" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_22" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_21" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_20" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_19" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_18" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_17" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_29" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_36" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_18" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_30" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_24" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_15" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_2" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_14" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_9" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_27" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_10" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_38" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_28" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_26" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_14" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_20" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_27" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_35" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_38" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_21" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_26" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_11" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_23" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_12" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17095,87 +24765,87 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_20" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_35" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_22" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_21" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_13" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_11" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_34" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_12" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_33" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_7" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_37" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_22" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_30" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_13" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_32" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_31" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_36" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-default-new" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_18" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_10" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_23" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_25" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_16" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_17" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_34" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_33" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_37" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_32" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_31" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-force-single-threaded-runtime-benchmark-new" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-assume-single-threaded_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_6" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-default" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_8" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17444,7 +25114,7 @@
   <dimension ref="A1:Z106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K106"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17488,10 +25158,10 @@
         <v>95</v>
       </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N1" t="s">
         <v>114</v>
@@ -17537,7 +25207,7 @@
         <v>libswiftCore(nonatomicRC)</v>
       </c>
       <c r="Z1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -17575,7 +25245,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUM(B2:J2)</f>
+        <f>SUM(B2:K2)</f>
         <v>397</v>
       </c>
       <c r="P2">
@@ -17658,8 +25328,8 @@
         <v>17351</v>
       </c>
       <c r="N3">
-        <f>SUM(B3:J3)</f>
-        <v>310848</v>
+        <f t="shared" ref="N3:N66" si="2">SUM(B3:K3)</f>
+        <v>328199</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -17697,8 +25367,8 @@
         <v>11289</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N66" si="2">SUM(B4:J4)</f>
-        <v>319824</v>
+        <f t="shared" si="2"/>
+        <v>331113</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -17737,7 +25407,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="2"/>
-        <v>43690</v>
+        <v>43691</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -17776,7 +25446,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="2"/>
-        <v>229610</v>
+        <v>232012</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -17815,7 +25485,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
-        <v>67242</v>
+        <v>67326</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -17854,7 +25524,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>172950</v>
+        <v>173261</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -17893,7 +25563,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>86813</v>
+        <v>87023</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -17932,7 +25602,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>170057</v>
+        <v>170303</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -17971,7 +25641,7 @@
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>83468</v>
+        <v>83571</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -18010,7 +25680,7 @@
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>297596</v>
+        <v>297803</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -18049,7 +25719,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="2"/>
-        <v>219526</v>
+        <v>219873</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -18088,7 +25758,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>280617</v>
+        <v>280635</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -18166,7 +25836,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="2"/>
-        <v>315087</v>
+        <v>333242</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -18205,7 +25875,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
-        <v>68328</v>
+        <v>68330</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -18244,7 +25914,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="2"/>
-        <v>149952</v>
+        <v>152228</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -18283,7 +25953,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="2"/>
-        <v>61258</v>
+        <v>61259</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -18322,7 +25992,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="2"/>
-        <v>147191</v>
+        <v>151091</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -18361,7 +26031,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
-        <v>234021</v>
+        <v>238272</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -18712,7 +26382,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="2"/>
-        <v>164402</v>
+        <v>166823</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -18829,7 +26499,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="2"/>
-        <v>203562</v>
+        <v>204050</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -18868,7 +26538,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="2"/>
-        <v>247866</v>
+        <v>250585</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -18907,7 +26577,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="2"/>
-        <v>253933</v>
+        <v>261790</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -18946,7 +26616,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="2"/>
-        <v>241439</v>
+        <v>242061</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -18985,7 +26655,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="2"/>
-        <v>217036</v>
+        <v>226932</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -19063,7 +26733,7 @@
       </c>
       <c r="N39">
         <f t="shared" si="2"/>
-        <v>196350</v>
+        <v>207230</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -19102,7 +26772,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="2"/>
-        <v>15056</v>
+        <v>15169</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -19141,7 +26811,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="2"/>
-        <v>197079</v>
+        <v>227227</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -19219,7 +26889,7 @@
       </c>
       <c r="N43">
         <f t="shared" si="2"/>
-        <v>195342</v>
+        <v>237541</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -19258,7 +26928,7 @@
       </c>
       <c r="N44">
         <f t="shared" si="2"/>
-        <v>315801</v>
+        <v>322093</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -19375,7 +27045,7 @@
       </c>
       <c r="N47">
         <f t="shared" si="2"/>
-        <v>140435</v>
+        <v>143161</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -19414,7 +27084,7 @@
       </c>
       <c r="N48">
         <f t="shared" si="2"/>
-        <v>236100</v>
+        <v>249802</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -19453,7 +27123,7 @@
       </c>
       <c r="N49">
         <f t="shared" si="2"/>
-        <v>8916</v>
+        <v>9147</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -19492,7 +27162,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="2"/>
-        <v>206</v>
+        <v>22615</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -19531,7 +27201,7 @@
       </c>
       <c r="N51">
         <f t="shared" si="2"/>
-        <v>284701</v>
+        <v>295042</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -19609,7 +27279,7 @@
       </c>
       <c r="N53">
         <f t="shared" si="2"/>
-        <v>236</v>
+        <v>228463</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -19648,7 +27318,7 @@
       </c>
       <c r="N54">
         <f t="shared" si="2"/>
-        <v>78928</v>
+        <v>80738</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -19804,7 +27474,7 @@
       </c>
       <c r="N58">
         <f t="shared" si="2"/>
-        <v>180247</v>
+        <v>259339</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -19843,7 +27513,7 @@
       </c>
       <c r="N59">
         <f t="shared" si="2"/>
-        <v>145669</v>
+        <v>145670</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -19882,7 +27552,7 @@
       </c>
       <c r="N60">
         <f t="shared" si="2"/>
-        <v>218118</v>
+        <v>247685</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -19921,7 +27591,7 @@
       </c>
       <c r="N61">
         <f t="shared" si="2"/>
-        <v>12160</v>
+        <v>12770</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -19960,7 +27630,7 @@
       </c>
       <c r="N62">
         <f t="shared" si="2"/>
-        <v>3740</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -19999,7 +27669,7 @@
       </c>
       <c r="N63">
         <f t="shared" si="2"/>
-        <v>12739</v>
+        <v>13226</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -20038,7 +27708,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="2"/>
-        <v>10512</v>
+        <v>11810</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -20154,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N106" si="3">SUM(B67:J67)</f>
+        <f t="shared" ref="N67:N106" si="3">SUM(B67:K67)</f>
         <v>217</v>
       </c>
     </row>
@@ -20194,7 +27864,7 @@
       </c>
       <c r="N68">
         <f t="shared" si="3"/>
-        <v>323213</v>
+        <v>323239</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -20233,7 +27903,7 @@
       </c>
       <c r="N69">
         <f t="shared" si="3"/>
-        <v>321928</v>
+        <v>321983</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -20272,7 +27942,7 @@
       </c>
       <c r="N70">
         <f t="shared" si="3"/>
-        <v>1369</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -20311,7 +27981,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="3"/>
-        <v>79344</v>
+        <v>92640</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -20428,7 +28098,7 @@
       </c>
       <c r="N74">
         <f t="shared" si="3"/>
-        <v>488</v>
+        <v>539</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -20467,7 +28137,7 @@
       </c>
       <c r="N75">
         <f t="shared" si="3"/>
-        <v>41750</v>
+        <v>54283</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -20506,7 +28176,7 @@
       </c>
       <c r="N76">
         <f t="shared" si="3"/>
-        <v>147287</v>
+        <v>192945</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -20545,7 +28215,7 @@
       </c>
       <c r="N77">
         <f t="shared" si="3"/>
-        <v>82903</v>
+        <v>89087</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -20584,7 +28254,7 @@
       </c>
       <c r="N78">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>56369</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -20623,7 +28293,7 @@
       </c>
       <c r="N79">
         <f t="shared" si="3"/>
-        <v>35491</v>
+        <v>37101</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -20662,7 +28332,7 @@
       </c>
       <c r="N80">
         <f t="shared" si="3"/>
-        <v>157173</v>
+        <v>170105</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -20701,7 +28371,7 @@
       </c>
       <c r="N81">
         <f t="shared" si="3"/>
-        <v>3238</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -20740,7 +28410,7 @@
       </c>
       <c r="N82">
         <f t="shared" si="3"/>
-        <v>84939</v>
+        <v>115741</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -20818,7 +28488,7 @@
       </c>
       <c r="N84">
         <f t="shared" si="3"/>
-        <v>180795</v>
+        <v>186713</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -20857,7 +28527,7 @@
       </c>
       <c r="N85">
         <f t="shared" si="3"/>
-        <v>41419</v>
+        <v>43246</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -20896,7 +28566,7 @@
       </c>
       <c r="N86">
         <f t="shared" si="3"/>
-        <v>171268</v>
+        <v>182473</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -20935,7 +28605,7 @@
       </c>
       <c r="N87">
         <f t="shared" si="3"/>
-        <v>223994</v>
+        <v>281477</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -20974,7 +28644,7 @@
       </c>
       <c r="N88">
         <f t="shared" si="3"/>
-        <v>14786</v>
+        <v>14812</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -21013,7 +28683,7 @@
       </c>
       <c r="N89">
         <f t="shared" si="3"/>
-        <v>264560</v>
+        <v>280063</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -21052,7 +28722,7 @@
       </c>
       <c r="N90">
         <f t="shared" si="3"/>
-        <v>290047</v>
+        <v>291784</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -21091,7 +28761,7 @@
       </c>
       <c r="N91">
         <f t="shared" si="3"/>
-        <v>269074</v>
+        <v>272552</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -21130,7 +28800,7 @@
       </c>
       <c r="N92">
         <f t="shared" si="3"/>
-        <v>258629</v>
+        <v>282138</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -21208,7 +28878,7 @@
       </c>
       <c r="N94">
         <f t="shared" si="3"/>
-        <v>134874</v>
+        <v>139386</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
@@ -21247,7 +28917,7 @@
       </c>
       <c r="N95">
         <f t="shared" si="3"/>
-        <v>217</v>
+        <v>544</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -21286,7 +28956,7 @@
       </c>
       <c r="N96">
         <f t="shared" si="3"/>
-        <v>314692</v>
+        <v>324031</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -21364,7 +29034,7 @@
       </c>
       <c r="N98">
         <f t="shared" si="3"/>
-        <v>271662</v>
+        <v>277335</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -21403,7 +29073,7 @@
       </c>
       <c r="N99">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -21481,7 +29151,7 @@
       </c>
       <c r="N101">
         <f t="shared" si="3"/>
-        <v>154087</v>
+        <v>155745</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -21520,7 +29190,7 @@
       </c>
       <c r="N102">
         <f t="shared" si="3"/>
-        <v>110607</v>
+        <v>113770</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -21637,7 +29307,7 @@
       </c>
       <c r="N105">
         <f t="shared" si="3"/>
-        <v>27808</v>
+        <v>28071</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -21676,7 +29346,7 @@
       </c>
       <c r="N106">
         <f t="shared" si="3"/>
-        <v>1923</v>
+        <v>1990</v>
       </c>
     </row>
   </sheetData>
@@ -21742,7 +29412,7 @@
         <v>libswiftCore(nonatomicRC)</v>
       </c>
       <c r="L1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N1" t="s">
         <v>93</v>
@@ -26881,7 +34551,7 @@
         <v>5.2502050861361775E-2</v>
       </c>
       <c r="L98">
-        <f t="shared" ref="L98:L129" si="6">SUM(J98:K98)</f>
+        <f t="shared" ref="L98:L106" si="6">SUM(J98:K98)</f>
         <v>0.23032379481735271</v>
       </c>
       <c r="N98">
@@ -27391,7 +35061,7 @@
         <v>libswiftCore(nonatomicRC)</v>
       </c>
       <c r="L1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N1" t="s">
         <v>93</v>
@@ -32530,7 +40200,7 @@
         <v>6.4140253354000749E-5</v>
       </c>
       <c r="L98">
-        <f t="shared" ref="L98:L129" si="5">SUM(J98:K98)</f>
+        <f t="shared" ref="L98:L106" si="5">SUM(J98:K98)</f>
         <v>0.89724731412689085</v>
       </c>
       <c r="N98">
@@ -32973,13 +40643,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -32989,37 +40664,54 @@
   <dimension ref="B4:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>